--- a/implement_MV.xlsx
+++ b/implement_MV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghoreishi.m\OneDrive - ASM Terni S.p.a\WORK\Mohammad Ghoreishi\ASM Terni\Feeder FDP\MV users\quarter_hourly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghoreishi.m\OneDrive - ASM Terni S.p.a\Documenti\GitHub\digital_twin - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C388610-D519-48D5-9D2C-DB9509441481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A829693-F1A7-4476-AC5E-1CA9627BECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2503,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,7 +2624,7 @@
         <v>417600</v>
       </c>
       <c r="H2">
-        <v>4000</v>
+        <v>36000</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>401400</v>
       </c>
       <c r="H3">
-        <v>4000</v>
+        <v>28000</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>407400</v>
       </c>
       <c r="H4">
-        <v>4000</v>
+        <v>16800</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>415800</v>
       </c>
       <c r="H5">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>414000</v>
       </c>
       <c r="H6">
-        <v>4000</v>
+        <v>32000</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -3069,7 +3069,7 @@
         <v>407400</v>
       </c>
       <c r="H7">
-        <v>4000</v>
+        <v>54400</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>414600</v>
       </c>
       <c r="H8">
-        <v>4000</v>
+        <v>77600</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>375600</v>
       </c>
       <c r="H9">
-        <v>4000</v>
+        <v>100800</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>373200</v>
       </c>
       <c r="H10">
-        <v>4000</v>
+        <v>124000</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>380400</v>
       </c>
       <c r="H11">
-        <v>4000</v>
+        <v>143200</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>375600</v>
       </c>
       <c r="H12">
-        <v>4000</v>
+        <v>160000</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>391200</v>
       </c>
       <c r="H13">
-        <v>4000</v>
+        <v>176800</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -3692,7 +3692,7 @@
         <v>379800</v>
       </c>
       <c r="H14">
-        <v>4000</v>
+        <v>192000</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -3781,7 +3781,7 @@
         <v>398400</v>
       </c>
       <c r="H15">
-        <v>4000</v>
+        <v>206400</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>389400</v>
       </c>
       <c r="H16">
-        <v>4000</v>
+        <v>222400</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>387600</v>
       </c>
       <c r="H17">
-        <v>4000</v>
+        <v>234400</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -4048,7 +4048,7 @@
         <v>383400</v>
       </c>
       <c r="H18">
-        <v>4000</v>
+        <v>243200</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>372600</v>
       </c>
       <c r="H19">
-        <v>4800</v>
+        <v>252000</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>347400</v>
       </c>
       <c r="H20">
-        <v>5600</v>
+        <v>256800</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -4315,7 +4315,7 @@
         <v>331200</v>
       </c>
       <c r="H21">
-        <v>5600</v>
+        <v>263200</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>287400</v>
       </c>
       <c r="H22">
-        <v>4800</v>
+        <v>265600</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>335400</v>
       </c>
       <c r="H23">
-        <v>4800</v>
+        <v>269600</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         <v>381600</v>
       </c>
       <c r="H24">
-        <v>4800</v>
+        <v>269600</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>372600</v>
       </c>
       <c r="H25">
-        <v>4000</v>
+        <v>270400</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>393600</v>
       </c>
       <c r="H26">
-        <v>4800</v>
+        <v>270400</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>367200</v>
       </c>
       <c r="H27">
-        <v>4800</v>
+        <v>270400</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>366000</v>
       </c>
       <c r="H28">
-        <v>4800</v>
+        <v>267200</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5027,7 +5027,7 @@
         <v>363600</v>
       </c>
       <c r="H29">
-        <v>4800</v>
+        <v>266400</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -5116,7 +5116,7 @@
         <v>376200</v>
       </c>
       <c r="H30">
-        <v>4800</v>
+        <v>261600</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -5205,7 +5205,7 @@
         <v>375000</v>
       </c>
       <c r="H31">
-        <v>4800</v>
+        <v>264000</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>382800</v>
       </c>
       <c r="H32">
-        <v>4800</v>
+        <v>249600</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         <v>402600</v>
       </c>
       <c r="H33">
-        <v>4800</v>
+        <v>236800</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>401400</v>
       </c>
       <c r="H34">
-        <v>3200</v>
+        <v>235200</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -5561,7 +5561,7 @@
         <v>383400</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>265600</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -5650,7 +5650,7 @@
         <v>390000</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>240800</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -5739,7 +5739,7 @@
         <v>414000</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>239200</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -5828,7 +5828,7 @@
         <v>417000</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>259200</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>418800</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>242400</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -6006,7 +6006,7 @@
         <v>418800</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>237600</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -6095,7 +6095,7 @@
         <v>415200</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>237600</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -6184,7 +6184,7 @@
         <v>386400</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>244800</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -6273,7 +6273,7 @@
         <v>389400</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>223200</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>399000</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>216800</v>
       </c>
       <c r="I44">
         <v>800</v>
@@ -6451,7 +6451,7 @@
         <v>413400</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>212800</v>
       </c>
       <c r="I45">
         <v>1600</v>
@@ -6540,7 +6540,7 @@
         <v>409200</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>202400</v>
       </c>
       <c r="I46">
         <v>800</v>
@@ -6629,7 +6629,7 @@
         <v>412200</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>203200</v>
       </c>
       <c r="I47">
         <v>800</v>
@@ -6718,7 +6718,7 @@
         <v>405600</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>205600</v>
       </c>
       <c r="I48">
         <v>800</v>
@@ -6807,7 +6807,7 @@
         <v>397800</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>208800</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>280.00000000000006</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -6896,7 +6896,7 @@
         <v>416400</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>210400</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>2720</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -6985,7 +6985,7 @@
         <v>415200</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>211200</v>
       </c>
       <c r="I51">
         <v>800</v>
@@ -7021,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -7074,7 +7074,7 @@
         <v>414000</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>209600</v>
       </c>
       <c r="I52">
         <v>4000</v>
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>3320.0000000000005</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -7163,7 +7163,7 @@
         <v>408000</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>205600</v>
       </c>
       <c r="I53">
         <v>1600</v>
@@ -7199,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>840.00000000000023</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>409800</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>200800</v>
       </c>
       <c r="I54">
         <v>4000</v>
@@ -7341,7 +7341,7 @@
         <v>372000</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>195200</v>
       </c>
       <c r="I55">
         <v>800</v>
@@ -7430,7 +7430,7 @@
         <v>396600</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>203200</v>
       </c>
       <c r="I56">
         <v>1600</v>
@@ -7519,7 +7519,7 @@
         <v>397200</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>227200</v>
       </c>
       <c r="I57">
         <v>1600</v>
@@ -7608,7 +7608,7 @@
         <v>399000</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>259200</v>
       </c>
       <c r="I58">
         <v>800</v>
@@ -7697,7 +7697,7 @@
         <v>394800</v>
       </c>
       <c r="H59">
-        <v>800</v>
+        <v>275200</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>388800</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>284000</v>
       </c>
       <c r="I60">
         <v>800</v>
@@ -7875,7 +7875,7 @@
         <v>381000</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>284800</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -7964,7 +7964,7 @@
         <v>397800</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>311200</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -8053,7 +8053,7 @@
         <v>408000</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>320000</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>413400</v>
       </c>
       <c r="H64">
-        <v>1600</v>
+        <v>324800</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>399600</v>
       </c>
       <c r="H65">
-        <v>4000</v>
+        <v>322400</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -8320,7 +8320,7 @@
         <v>416400</v>
       </c>
       <c r="H66">
-        <v>1600</v>
+        <v>348000</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -8409,7 +8409,7 @@
         <v>410400</v>
       </c>
       <c r="H67">
-        <v>4000</v>
+        <v>352000</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -8498,7 +8498,7 @@
         <v>408000</v>
       </c>
       <c r="H68">
-        <v>4800</v>
+        <v>366400</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -8587,7 +8587,7 @@
         <v>415200</v>
       </c>
       <c r="H69">
-        <v>5600</v>
+        <v>332000</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -8676,7 +8676,7 @@
         <v>400200</v>
       </c>
       <c r="H70">
-        <v>5600</v>
+        <v>331200</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>397800</v>
       </c>
       <c r="H71">
-        <v>5600</v>
+        <v>383200</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -8854,7 +8854,7 @@
         <v>391200</v>
       </c>
       <c r="H72">
-        <v>4800</v>
+        <v>344000</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -8943,7 +8943,7 @@
         <v>389400</v>
       </c>
       <c r="H73">
-        <v>4800</v>
+        <v>352000</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -9032,7 +9032,7 @@
         <v>403200</v>
       </c>
       <c r="H74">
-        <v>4800</v>
+        <v>340800</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>394200</v>
       </c>
       <c r="H75">
-        <v>5600</v>
+        <v>320000</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -9210,7 +9210,7 @@
         <v>379800</v>
       </c>
       <c r="H76">
-        <v>5600</v>
+        <v>356000</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -9299,7 +9299,7 @@
         <v>396600</v>
       </c>
       <c r="H77">
-        <v>5600</v>
+        <v>327200</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -9388,7 +9388,7 @@
         <v>393600</v>
       </c>
       <c r="H78">
-        <v>4800</v>
+        <v>321600</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>394800</v>
       </c>
       <c r="H79">
-        <v>5600</v>
+        <v>312000</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -9566,7 +9566,7 @@
         <v>412200</v>
       </c>
       <c r="H80">
-        <v>5600</v>
+        <v>309600</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="U80">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V80">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>382800</v>
       </c>
       <c r="H81">
-        <v>6400</v>
+        <v>304800</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -9691,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="U81">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V81">
         <v>0</v>
@@ -9744,7 +9744,7 @@
         <v>413400</v>
       </c>
       <c r="H82">
-        <v>4800</v>
+        <v>299200</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -9780,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="U82">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V82">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>417600</v>
       </c>
       <c r="H83">
-        <v>4000</v>
+        <v>277600</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -9869,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="U83">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V83">
         <v>0</v>
@@ -9922,7 +9922,7 @@
         <v>400800</v>
       </c>
       <c r="H84">
-        <v>4000</v>
+        <v>283200</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -9958,7 +9958,7 @@
         <v>0</v>
       </c>
       <c r="U84">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V84">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>384600</v>
       </c>
       <c r="H85">
-        <v>4000</v>
+        <v>256000</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -10047,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="U85">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V85">
         <v>0</v>
@@ -10100,7 +10100,7 @@
         <v>397800</v>
       </c>
       <c r="H86">
-        <v>4000</v>
+        <v>236800</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -10136,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="U86">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V86">
         <v>0</v>
@@ -10189,7 +10189,7 @@
         <v>390000</v>
       </c>
       <c r="H87">
-        <v>4000</v>
+        <v>228000</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="U87">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V87">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>379200</v>
       </c>
       <c r="H88">
-        <v>4000</v>
+        <v>222400</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -10314,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="U88">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V88">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>385800</v>
       </c>
       <c r="H89">
-        <v>4000</v>
+        <v>188800</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -10403,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="U89">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V89">
         <v>0</v>
@@ -10456,7 +10456,7 @@
         <v>384600</v>
       </c>
       <c r="H90">
-        <v>4000</v>
+        <v>176800</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -10492,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="U90">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V90">
         <v>0</v>
@@ -10545,7 +10545,7 @@
         <v>379200</v>
       </c>
       <c r="H91">
-        <v>4000</v>
+        <v>152000</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="U91">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V91">
         <v>0</v>
@@ -10634,7 +10634,7 @@
         <v>387600</v>
       </c>
       <c r="H92">
-        <v>4000</v>
+        <v>134400</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="U92">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V92">
         <v>0</v>
@@ -10723,7 +10723,7 @@
         <v>391200</v>
       </c>
       <c r="H93">
-        <v>4000</v>
+        <v>133600</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -10759,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="U93">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V93">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>387000</v>
       </c>
       <c r="H94">
-        <v>4000</v>
+        <v>107200</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -10848,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="U94">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V94">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>387000</v>
       </c>
       <c r="H95">
-        <v>4000</v>
+        <v>79200</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="U95">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V95">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>384600</v>
       </c>
       <c r="H96">
-        <v>4000</v>
+        <v>64800</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -11026,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="U96">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V96">
         <v>0</v>
@@ -11079,7 +11079,7 @@
         <v>398400</v>
       </c>
       <c r="H97">
-        <v>4000</v>
+        <v>49600</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="U97">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V97">
         <v>0</v>
@@ -11168,7 +11168,7 @@
         <v>417600</v>
       </c>
       <c r="H98">
-        <v>4000</v>
+        <v>43200</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -11204,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="U98">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V98">
         <v>0</v>
@@ -11257,7 +11257,7 @@
         <v>391800</v>
       </c>
       <c r="H99">
-        <v>4000</v>
+        <v>25600</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -11293,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="U99">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V99">
         <v>0</v>
@@ -11346,7 +11346,7 @@
         <v>399000</v>
       </c>
       <c r="H100">
-        <v>4000</v>
+        <v>14400</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="U100">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V100">
         <v>0</v>
@@ -11435,7 +11435,7 @@
         <v>406200</v>
       </c>
       <c r="H101">
-        <v>4000</v>
+        <v>28800</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="U101">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V101">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>416400</v>
       </c>
       <c r="H102">
-        <v>4000</v>
+        <v>44000</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -11560,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="U102">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V102">
         <v>0</v>
@@ -11613,7 +11613,7 @@
         <v>400200</v>
       </c>
       <c r="H103">
-        <v>4000</v>
+        <v>68800</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -11649,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="U103">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V103">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>404400</v>
       </c>
       <c r="H104">
-        <v>4000</v>
+        <v>93600</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -11738,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="U104">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V104">
         <v>0</v>
@@ -11791,7 +11791,7 @@
         <v>399000</v>
       </c>
       <c r="H105">
-        <v>4000</v>
+        <v>116000</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -11827,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="U105">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V105">
         <v>0</v>
@@ -11880,7 +11880,7 @@
         <v>384600</v>
       </c>
       <c r="H106">
-        <v>4000</v>
+        <v>136800</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -11916,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="U106">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V106">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>386400</v>
       </c>
       <c r="H107">
-        <v>4000</v>
+        <v>154400</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -12005,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="U107">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V107">
         <v>0</v>
@@ -12058,7 +12058,7 @@
         <v>380400</v>
       </c>
       <c r="H108">
-        <v>4000</v>
+        <v>170400</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -12094,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="U108">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V108">
         <v>0</v>
@@ -12147,7 +12147,7 @@
         <v>373800</v>
       </c>
       <c r="H109">
-        <v>4000</v>
+        <v>186400</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -12183,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="U109">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V109">
         <v>0</v>
@@ -12236,7 +12236,7 @@
         <v>409800</v>
       </c>
       <c r="H110">
-        <v>4000</v>
+        <v>202400</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="U110">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V110">
         <v>0</v>
@@ -12325,7 +12325,7 @@
         <v>397800</v>
       </c>
       <c r="H111">
-        <v>4000</v>
+        <v>217600</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -12361,7 +12361,7 @@
         <v>0</v>
       </c>
       <c r="U111">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V111">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>400200</v>
       </c>
       <c r="H112">
-        <v>4800</v>
+        <v>232800</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -12450,7 +12450,7 @@
         <v>0</v>
       </c>
       <c r="U112">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V112">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>405000</v>
       </c>
       <c r="H113">
-        <v>4000</v>
+        <v>244000</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -12539,7 +12539,7 @@
         <v>0</v>
       </c>
       <c r="U113">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V113">
         <v>0</v>
@@ -12592,7 +12592,7 @@
         <v>384000</v>
       </c>
       <c r="H114">
-        <v>4000</v>
+        <v>254400</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -12628,7 +12628,7 @@
         <v>0</v>
       </c>
       <c r="U114">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V114">
         <v>0</v>
@@ -12681,7 +12681,7 @@
         <v>395400</v>
       </c>
       <c r="H115">
-        <v>4800</v>
+        <v>263200</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -12717,7 +12717,7 @@
         <v>0</v>
       </c>
       <c r="U115">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V115">
         <v>0</v>
@@ -12770,7 +12770,7 @@
         <v>398400</v>
       </c>
       <c r="H116">
-        <v>5600</v>
+        <v>263200</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -12806,7 +12806,7 @@
         <v>0</v>
       </c>
       <c r="U116">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V116">
         <v>0</v>
@@ -12859,7 +12859,7 @@
         <v>378600</v>
       </c>
       <c r="H117">
-        <v>4800</v>
+        <v>267200</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="U117">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="V117">
         <v>0</v>
@@ -12948,7 +12948,7 @@
         <v>300000</v>
       </c>
       <c r="H118">
-        <v>4800</v>
+        <v>271200</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -13037,7 +13037,7 @@
         <v>306600</v>
       </c>
       <c r="H119">
-        <v>5600</v>
+        <v>274400</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -13126,7 +13126,7 @@
         <v>321000</v>
       </c>
       <c r="H120">
-        <v>5600</v>
+        <v>276000</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -13215,7 +13215,7 @@
         <v>362400</v>
       </c>
       <c r="H121">
-        <v>5600</v>
+        <v>276000</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -13304,7 +13304,7 @@
         <v>380400</v>
       </c>
       <c r="H122">
-        <v>4800</v>
+        <v>276000</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -13393,7 +13393,7 @@
         <v>360000</v>
       </c>
       <c r="H123">
-        <v>4800</v>
+        <v>272800</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -13482,7 +13482,7 @@
         <v>390600</v>
       </c>
       <c r="H124">
-        <v>4800</v>
+        <v>269600</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -13571,7 +13571,7 @@
         <v>381000</v>
       </c>
       <c r="H125">
-        <v>4800</v>
+        <v>265600</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -13660,7 +13660,7 @@
         <v>369600</v>
       </c>
       <c r="H126">
-        <v>5600</v>
+        <v>258400</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -13749,7 +13749,7 @@
         <v>351000</v>
       </c>
       <c r="H127">
-        <v>5600</v>
+        <v>250400</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -13838,7 +13838,7 @@
         <v>355800</v>
       </c>
       <c r="H128">
-        <v>4800</v>
+        <v>236800</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -13927,7 +13927,7 @@
         <v>365400</v>
       </c>
       <c r="H129">
-        <v>4800</v>
+        <v>231200</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -14016,7 +14016,7 @@
         <v>370200</v>
       </c>
       <c r="H130">
-        <v>5600</v>
+        <v>236800</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -14105,7 +14105,7 @@
         <v>392400</v>
       </c>
       <c r="H131">
-        <v>4800</v>
+        <v>241600</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -14194,7 +14194,7 @@
         <v>376800</v>
       </c>
       <c r="H132">
-        <v>4800</v>
+        <v>243200</v>
       </c>
       <c r="I132">
         <v>800</v>
@@ -14283,7 +14283,7 @@
         <v>374400</v>
       </c>
       <c r="H133">
-        <v>4800</v>
+        <v>245600</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -14372,7 +14372,7 @@
         <v>384600</v>
       </c>
       <c r="H134">
-        <v>3200</v>
+        <v>257600</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -14461,7 +14461,7 @@
         <v>379800</v>
       </c>
       <c r="H135">
-        <v>2400</v>
+        <v>261600</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -14550,7 +14550,7 @@
         <v>380400</v>
       </c>
       <c r="H136">
-        <v>3200</v>
+        <v>258400</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -14639,7 +14639,7 @@
         <v>396000</v>
       </c>
       <c r="H137">
-        <v>4000</v>
+        <v>251200</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -14728,7 +14728,7 @@
         <v>412800</v>
       </c>
       <c r="H138">
-        <v>3200</v>
+        <v>244000</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -14817,7 +14817,7 @@
         <v>387000</v>
       </c>
       <c r="H139">
-        <v>3200</v>
+        <v>227200</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -14906,7 +14906,7 @@
         <v>401400</v>
       </c>
       <c r="H140">
-        <v>2400</v>
+        <v>220000</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -14995,7 +14995,7 @@
         <v>415800</v>
       </c>
       <c r="H141">
-        <v>800</v>
+        <v>212000</v>
       </c>
       <c r="I141">
         <v>800</v>
@@ -15084,7 +15084,7 @@
         <v>417000</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>203200</v>
       </c>
       <c r="I142">
         <v>800</v>
@@ -15173,7 +15173,7 @@
         <v>410400</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>202400</v>
       </c>
       <c r="I143">
         <v>800</v>
@@ -15262,7 +15262,7 @@
         <v>418200</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>207200</v>
       </c>
       <c r="I144">
         <v>800</v>
@@ -15351,7 +15351,7 @@
         <v>434400</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>211200</v>
       </c>
       <c r="I145">
         <v>800</v>
@@ -15440,7 +15440,7 @@
         <v>417600</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>214400</v>
       </c>
       <c r="I146">
         <v>800</v>
@@ -15476,7 +15476,7 @@
         <v>0</v>
       </c>
       <c r="U146">
-        <v>0</v>
+        <v>3240</v>
       </c>
       <c r="V146">
         <v>0</v>
@@ -15529,7 +15529,7 @@
         <v>421200</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>213600</v>
       </c>
       <c r="I147">
         <v>1600</v>
@@ -15565,7 +15565,7 @@
         <v>0</v>
       </c>
       <c r="U147">
-        <v>0</v>
+        <v>3880.0000000000009</v>
       </c>
       <c r="V147">
         <v>0</v>
@@ -15618,7 +15618,7 @@
         <v>415200</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>236800</v>
       </c>
       <c r="I148">
         <v>4000</v>
@@ -15654,7 +15654,7 @@
         <v>0</v>
       </c>
       <c r="U148">
-        <v>0</v>
+        <v>2720</v>
       </c>
       <c r="V148">
         <v>0</v>
@@ -15707,7 +15707,7 @@
         <v>410400</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>210400</v>
       </c>
       <c r="I149">
         <v>1600</v>
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="U149">
-        <v>0</v>
+        <v>5920</v>
       </c>
       <c r="V149">
         <v>0</v>
@@ -15796,7 +15796,7 @@
         <v>427800</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>211200</v>
       </c>
       <c r="I150">
         <v>800</v>
@@ -15832,7 +15832,7 @@
         <v>0</v>
       </c>
       <c r="U150">
-        <v>0</v>
+        <v>8040</v>
       </c>
       <c r="V150">
         <v>0</v>
@@ -15885,7 +15885,7 @@
         <v>405000</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>214400</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -15921,7 +15921,7 @@
         <v>0</v>
       </c>
       <c r="U151">
-        <v>0</v>
+        <v>5120</v>
       </c>
       <c r="V151">
         <v>0</v>
@@ -15974,7 +15974,7 @@
         <v>378000</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>205600</v>
       </c>
       <c r="I152">
         <v>1600</v>
@@ -16010,7 +16010,7 @@
         <v>0</v>
       </c>
       <c r="U152">
-        <v>0</v>
+        <v>280.00000000000006</v>
       </c>
       <c r="V152">
         <v>0</v>
@@ -16063,7 +16063,7 @@
         <v>392400</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>231200</v>
       </c>
       <c r="I153">
         <v>800</v>
@@ -16152,7 +16152,7 @@
         <v>394800</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>228800</v>
       </c>
       <c r="I154">
         <v>800</v>
@@ -16241,7 +16241,7 @@
         <v>396600</v>
       </c>
       <c r="H155">
-        <v>800</v>
+        <v>246400</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -16330,7 +16330,7 @@
         <v>382800</v>
       </c>
       <c r="H156">
-        <v>1600</v>
+        <v>268000</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -16419,7 +16419,7 @@
         <v>387000</v>
       </c>
       <c r="H157">
-        <v>2400</v>
+        <v>271200</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -16508,7 +16508,7 @@
         <v>399600</v>
       </c>
       <c r="H158">
-        <v>800</v>
+        <v>294400</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -16597,7 +16597,7 @@
         <v>396600</v>
       </c>
       <c r="H159">
-        <v>1600</v>
+        <v>288800</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -16686,7 +16686,7 @@
         <v>397800</v>
       </c>
       <c r="H160">
-        <v>3200</v>
+        <v>314400</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -16775,7 +16775,7 @@
         <v>399000</v>
       </c>
       <c r="H161">
-        <v>3200</v>
+        <v>304000</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -16864,7 +16864,7 @@
         <v>419400</v>
       </c>
       <c r="H162">
-        <v>4000</v>
+        <v>302400</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -16953,7 +16953,7 @@
         <v>428400</v>
       </c>
       <c r="H163">
-        <v>4000</v>
+        <v>307200</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -17042,7 +17042,7 @@
         <v>423600</v>
       </c>
       <c r="H164">
-        <v>4800</v>
+        <v>316000</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -17131,7 +17131,7 @@
         <v>429000</v>
       </c>
       <c r="H165">
-        <v>4800</v>
+        <v>321600</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -17220,7 +17220,7 @@
         <v>419400</v>
       </c>
       <c r="H166">
-        <v>4800</v>
+        <v>314400</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -17309,7 +17309,7 @@
         <v>421800</v>
       </c>
       <c r="H167">
-        <v>4800</v>
+        <v>317600</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -17398,7 +17398,7 @@
         <v>433200</v>
       </c>
       <c r="H168">
-        <v>4800</v>
+        <v>348000</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -17487,7 +17487,7 @@
         <v>424200</v>
       </c>
       <c r="H169">
-        <v>4800</v>
+        <v>373600</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -17576,7 +17576,7 @@
         <v>418800</v>
       </c>
       <c r="H170">
-        <v>4800</v>
+        <v>343200</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -17665,7 +17665,7 @@
         <v>430800</v>
       </c>
       <c r="H171">
-        <v>4800</v>
+        <v>426400</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -17754,7 +17754,7 @@
         <v>427800</v>
       </c>
       <c r="H172">
-        <v>4800</v>
+        <v>336000</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -17843,7 +17843,7 @@
         <v>433800</v>
       </c>
       <c r="H173">
-        <v>5600</v>
+        <v>317600</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -17932,7 +17932,7 @@
         <v>439800</v>
       </c>
       <c r="H174">
-        <v>5600</v>
+        <v>311200</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -18021,7 +18021,7 @@
         <v>436200</v>
       </c>
       <c r="H175">
-        <v>4800</v>
+        <v>348800</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -18110,7 +18110,7 @@
         <v>430200</v>
       </c>
       <c r="H176">
-        <v>4800</v>
+        <v>302400</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -18146,7 +18146,7 @@
         <v>0</v>
       </c>
       <c r="U176">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V176">
         <v>0</v>
@@ -18199,7 +18199,7 @@
         <v>425400</v>
       </c>
       <c r="H177">
-        <v>5600</v>
+        <v>307200</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -18235,7 +18235,7 @@
         <v>0</v>
       </c>
       <c r="U177">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V177">
         <v>0</v>
@@ -18288,7 +18288,7 @@
         <v>433800</v>
       </c>
       <c r="H178">
-        <v>4800</v>
+        <v>292000</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="U178">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V178">
         <v>0</v>
@@ -18377,7 +18377,7 @@
         <v>416400</v>
       </c>
       <c r="H179">
-        <v>4000</v>
+        <v>274400</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -18413,7 +18413,7 @@
         <v>0</v>
       </c>
       <c r="U179">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V179">
         <v>0</v>
@@ -18466,7 +18466,7 @@
         <v>383400</v>
       </c>
       <c r="H180">
-        <v>4000</v>
+        <v>265600</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -18502,7 +18502,7 @@
         <v>0</v>
       </c>
       <c r="U180">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V180">
         <v>0</v>
@@ -18555,7 +18555,7 @@
         <v>384000</v>
       </c>
       <c r="H181">
-        <v>4000</v>
+        <v>247200</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -18591,7 +18591,7 @@
         <v>0</v>
       </c>
       <c r="U181">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V181">
         <v>0</v>
@@ -18644,7 +18644,7 @@
         <v>337800</v>
       </c>
       <c r="H182">
-        <v>4000</v>
+        <v>240000</v>
       </c>
       <c r="I182">
         <v>800</v>
@@ -18680,7 +18680,7 @@
         <v>0</v>
       </c>
       <c r="U182">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V182">
         <v>0</v>
@@ -18733,7 +18733,7 @@
         <v>328800</v>
       </c>
       <c r="H183">
-        <v>4000</v>
+        <v>219200</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -18769,7 +18769,7 @@
         <v>0</v>
       </c>
       <c r="U183">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V183">
         <v>0</v>
@@ -18822,7 +18822,7 @@
         <v>352800</v>
       </c>
       <c r="H184">
-        <v>4000</v>
+        <v>200000</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -18858,7 +18858,7 @@
         <v>0</v>
       </c>
       <c r="U184">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V184">
         <v>0</v>
@@ -18911,7 +18911,7 @@
         <v>379800</v>
       </c>
       <c r="H185">
-        <v>4000</v>
+        <v>212800</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -18947,7 +18947,7 @@
         <v>0</v>
       </c>
       <c r="U185">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V185">
         <v>0</v>
@@ -19000,7 +19000,7 @@
         <v>403800</v>
       </c>
       <c r="H186">
-        <v>4000</v>
+        <v>188800</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -19036,7 +19036,7 @@
         <v>0</v>
       </c>
       <c r="U186">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V186">
         <v>0</v>
@@ -19089,7 +19089,7 @@
         <v>413400</v>
       </c>
       <c r="H187">
-        <v>4000</v>
+        <v>152800</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -19125,7 +19125,7 @@
         <v>0</v>
       </c>
       <c r="U187">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V187">
         <v>0</v>
@@ -19178,7 +19178,7 @@
         <v>408000</v>
       </c>
       <c r="H188">
-        <v>4000</v>
+        <v>141600</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -19214,7 +19214,7 @@
         <v>0</v>
       </c>
       <c r="U188">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V188">
         <v>0</v>
@@ -19267,7 +19267,7 @@
         <v>412200</v>
       </c>
       <c r="H189">
-        <v>4000</v>
+        <v>116000</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -19303,7 +19303,7 @@
         <v>330.00000000000017</v>
       </c>
       <c r="U189">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V189">
         <v>0</v>
@@ -19356,7 +19356,7 @@
         <v>427200</v>
       </c>
       <c r="H190">
-        <v>4000</v>
+        <v>105600</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -19392,7 +19392,7 @@
         <v>0</v>
       </c>
       <c r="U190">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V190">
         <v>0</v>
@@ -19445,7 +19445,7 @@
         <v>413400</v>
       </c>
       <c r="H191">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -19481,7 +19481,7 @@
         <v>330.00000000000017</v>
       </c>
       <c r="U191">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V191">
         <v>0</v>
@@ -19534,7 +19534,7 @@
         <v>400200</v>
       </c>
       <c r="H192">
-        <v>4000</v>
+        <v>92000</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>0</v>
       </c>
       <c r="U192">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V192">
         <v>0</v>
@@ -19623,7 +19623,7 @@
         <v>413400</v>
       </c>
       <c r="H193">
-        <v>4000</v>
+        <v>48800</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -19659,7 +19659,7 @@
         <v>0</v>
       </c>
       <c r="U193">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V193">
         <v>0</v>
@@ -19712,7 +19712,7 @@
         <v>416400</v>
       </c>
       <c r="H194">
-        <v>4000</v>
+        <v>28000</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -19748,7 +19748,7 @@
         <v>0</v>
       </c>
       <c r="U194">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V194">
         <v>0</v>
@@ -19801,7 +19801,7 @@
         <v>402600</v>
       </c>
       <c r="H195">
-        <v>4000</v>
+        <v>15200</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -19837,7 +19837,7 @@
         <v>0</v>
       </c>
       <c r="U195">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V195">
         <v>0</v>
@@ -19890,7 +19890,7 @@
         <v>396000</v>
       </c>
       <c r="H196">
-        <v>4000</v>
+        <v>8800</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -19926,7 +19926,7 @@
         <v>0</v>
       </c>
       <c r="U196">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V196">
         <v>0</v>
@@ -19979,7 +19979,7 @@
         <v>426000</v>
       </c>
       <c r="H197">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -20015,7 +20015,7 @@
         <v>0</v>
       </c>
       <c r="U197">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V197">
         <v>0</v>
@@ -20104,7 +20104,7 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V198">
         <v>0</v>
@@ -20157,7 +20157,7 @@
         <v>427200</v>
       </c>
       <c r="H199">
-        <v>4000</v>
+        <v>11200</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V199">
         <v>0</v>
@@ -20246,7 +20246,7 @@
         <v>422400</v>
       </c>
       <c r="H200">
-        <v>4000</v>
+        <v>8800</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -20282,7 +20282,7 @@
         <v>0</v>
       </c>
       <c r="U200">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V200">
         <v>0</v>
@@ -20335,7 +20335,7 @@
         <v>379800</v>
       </c>
       <c r="H201">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -20371,7 +20371,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V201">
         <v>0</v>
@@ -20424,7 +20424,7 @@
         <v>390000</v>
       </c>
       <c r="H202">
-        <v>4000</v>
+        <v>18400</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -20460,7 +20460,7 @@
         <v>0</v>
       </c>
       <c r="U202">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V202">
         <v>0</v>
@@ -20513,7 +20513,7 @@
         <v>397800</v>
       </c>
       <c r="H203">
-        <v>4000</v>
+        <v>8800</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -20549,7 +20549,7 @@
         <v>0</v>
       </c>
       <c r="U203">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V203">
         <v>0</v>
@@ -20602,7 +20602,7 @@
         <v>398400</v>
       </c>
       <c r="H204">
-        <v>4000</v>
+        <v>14400</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -20638,7 +20638,7 @@
         <v>0</v>
       </c>
       <c r="U204">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V204">
         <v>0</v>
@@ -20691,7 +20691,7 @@
         <v>405600</v>
       </c>
       <c r="H205">
-        <v>4000</v>
+        <v>36000</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -20727,7 +20727,7 @@
         <v>0</v>
       </c>
       <c r="U205">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V205">
         <v>0</v>
@@ -20780,7 +20780,7 @@
         <v>410400</v>
       </c>
       <c r="H206">
-        <v>4000</v>
+        <v>37600</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -20816,7 +20816,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V206">
         <v>0</v>
@@ -20869,7 +20869,7 @@
         <v>398400</v>
       </c>
       <c r="H207">
-        <v>4000</v>
+        <v>32800</v>
       </c>
       <c r="I207">
         <v>0</v>
@@ -20905,7 +20905,7 @@
         <v>0</v>
       </c>
       <c r="U207">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V207">
         <v>0</v>
@@ -20958,7 +20958,7 @@
         <v>418800</v>
       </c>
       <c r="H208">
-        <v>4000</v>
+        <v>88800</v>
       </c>
       <c r="I208">
         <v>0</v>
@@ -20994,7 +20994,7 @@
         <v>0</v>
       </c>
       <c r="U208">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V208">
         <v>0</v>
@@ -21047,7 +21047,7 @@
         <v>419400</v>
       </c>
       <c r="H209">
-        <v>4000</v>
+        <v>128800</v>
       </c>
       <c r="I209">
         <v>0</v>
@@ -21083,7 +21083,7 @@
         <v>0</v>
       </c>
       <c r="U209">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V209">
         <v>0</v>
@@ -21136,7 +21136,7 @@
         <v>401400</v>
       </c>
       <c r="H210">
-        <v>4000</v>
+        <v>98400</v>
       </c>
       <c r="I210">
         <v>0</v>
@@ -21172,7 +21172,7 @@
         <v>0</v>
       </c>
       <c r="U210">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V210">
         <v>0</v>
@@ -21225,7 +21225,7 @@
         <v>395400</v>
       </c>
       <c r="H211">
-        <v>4800</v>
+        <v>80800</v>
       </c>
       <c r="I211">
         <v>0</v>
@@ -21261,7 +21261,7 @@
         <v>0</v>
       </c>
       <c r="U211">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V211">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>371400</v>
       </c>
       <c r="H212">
-        <v>4800</v>
+        <v>112800</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -21350,7 +21350,7 @@
         <v>0</v>
       </c>
       <c r="U212">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V212">
         <v>0</v>
@@ -21403,7 +21403,7 @@
         <v>363600</v>
       </c>
       <c r="H213">
-        <v>4800</v>
+        <v>127200</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -21439,7 +21439,7 @@
         <v>0</v>
       </c>
       <c r="U213">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="V213">
         <v>0</v>
@@ -21492,7 +21492,7 @@
         <v>341400</v>
       </c>
       <c r="H214">
-        <v>4800</v>
+        <v>94400</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -21581,7 +21581,7 @@
         <v>318600</v>
       </c>
       <c r="H215">
-        <v>4800</v>
+        <v>115200</v>
       </c>
       <c r="I215">
         <v>0</v>
@@ -21670,7 +21670,7 @@
         <v>331800</v>
       </c>
       <c r="H216">
-        <v>5600</v>
+        <v>136800</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -21759,7 +21759,7 @@
         <v>363000</v>
       </c>
       <c r="H217">
-        <v>5600</v>
+        <v>149600</v>
       </c>
       <c r="I217">
         <v>0</v>
@@ -21848,7 +21848,7 @@
         <v>355200</v>
       </c>
       <c r="H218">
-        <v>4800</v>
+        <v>164800</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -21937,7 +21937,7 @@
         <v>371400</v>
       </c>
       <c r="H219">
-        <v>4800</v>
+        <v>179200</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -22026,7 +22026,7 @@
         <v>395400</v>
       </c>
       <c r="H220">
-        <v>4800</v>
+        <v>193600</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -22115,7 +22115,7 @@
         <v>390600</v>
       </c>
       <c r="H221">
-        <v>4800</v>
+        <v>207200</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -22204,7 +22204,7 @@
         <v>396600</v>
       </c>
       <c r="H222">
-        <v>4800</v>
+        <v>220000</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -22293,7 +22293,7 @@
         <v>405600</v>
       </c>
       <c r="H223">
-        <v>5600</v>
+        <v>309600</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -22382,7 +22382,7 @@
         <v>424800</v>
       </c>
       <c r="H224">
-        <v>4800</v>
+        <v>233600</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -22471,7 +22471,7 @@
         <v>413400</v>
       </c>
       <c r="H225">
-        <v>4000</v>
+        <v>239200</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -22560,7 +22560,7 @@
         <v>409800</v>
       </c>
       <c r="H226">
-        <v>5600</v>
+        <v>256800</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -22649,7 +22649,7 @@
         <v>398400</v>
       </c>
       <c r="H227">
-        <v>4800</v>
+        <v>254400</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -22738,7 +22738,7 @@
         <v>415800</v>
       </c>
       <c r="H228">
-        <v>4000</v>
+        <v>258400</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -22827,7 +22827,7 @@
         <v>429000</v>
       </c>
       <c r="H229">
-        <v>1600</v>
+        <v>259200</v>
       </c>
       <c r="I229">
         <v>0</v>
@@ -22916,7 +22916,7 @@
         <v>429000</v>
       </c>
       <c r="H230">
-        <v>1600</v>
+        <v>259200</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -23005,7 +23005,7 @@
         <v>417000</v>
       </c>
       <c r="H231">
-        <v>2400</v>
+        <v>257600</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -23094,7 +23094,7 @@
         <v>399000</v>
       </c>
       <c r="H232">
-        <v>4000</v>
+        <v>277600</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -23183,7 +23183,7 @@
         <v>396000</v>
       </c>
       <c r="H233">
-        <v>3200</v>
+        <v>254400</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>402000</v>
       </c>
       <c r="H234">
-        <v>1600</v>
+        <v>261600</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -23361,7 +23361,7 @@
         <v>415800</v>
       </c>
       <c r="H235">
-        <v>800</v>
+        <v>248800</v>
       </c>
       <c r="I235">
         <v>800</v>
@@ -23450,7 +23450,7 @@
         <v>406200</v>
       </c>
       <c r="H236">
-        <v>800</v>
+        <v>268000</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>405000</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>228800</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -23628,7 +23628,7 @@
         <v>421200</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>218400</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -23717,7 +23717,7 @@
         <v>416400</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>228000</v>
       </c>
       <c r="I239">
         <v>800</v>
@@ -23806,7 +23806,7 @@
         <v>411600</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>212000</v>
       </c>
       <c r="I240">
         <v>800</v>
@@ -23895,7 +23895,7 @@
         <v>403800</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>217600</v>
       </c>
       <c r="I241">
         <v>0</v>
@@ -23931,7 +23931,7 @@
         <v>0</v>
       </c>
       <c r="U241">
-        <v>0</v>
+        <v>3800.0000000000005</v>
       </c>
       <c r="V241">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>419400</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>237600</v>
       </c>
       <c r="I242">
         <v>800</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="U242">
-        <v>0</v>
+        <v>5360</v>
       </c>
       <c r="V242">
         <v>0</v>
@@ -24073,7 +24073,7 @@
         <v>429600</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>221600</v>
       </c>
       <c r="I243">
         <v>0</v>
@@ -24109,7 +24109,7 @@
         <v>0</v>
       </c>
       <c r="U243">
-        <v>0</v>
+        <v>7240</v>
       </c>
       <c r="V243">
         <v>0</v>
@@ -24162,7 +24162,7 @@
         <v>427200</v>
       </c>
       <c r="H244">
-        <v>800</v>
+        <v>219200</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -24198,7 +24198,7 @@
         <v>0</v>
       </c>
       <c r="U244">
-        <v>0</v>
+        <v>10480</v>
       </c>
       <c r="V244">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>390000</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>216800</v>
       </c>
       <c r="I245">
         <v>0</v>
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="U245">
-        <v>0</v>
+        <v>21400</v>
       </c>
       <c r="V245">
         <v>0</v>
@@ -24340,7 +24340,7 @@
         <v>370200</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>211200</v>
       </c>
       <c r="I246">
         <v>800</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="U246">
-        <v>0</v>
+        <v>11760</v>
       </c>
       <c r="V246">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>369000</v>
       </c>
       <c r="H247">
-        <v>800</v>
+        <v>204800</v>
       </c>
       <c r="I247">
         <v>800</v>
@@ -24465,7 +24465,7 @@
         <v>0</v>
       </c>
       <c r="U247">
-        <v>0</v>
+        <v>1880</v>
       </c>
       <c r="V247">
         <v>0</v>
@@ -24518,7 +24518,7 @@
         <v>408600</v>
       </c>
       <c r="H248">
-        <v>800</v>
+        <v>199200</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>414000</v>
       </c>
       <c r="H249">
-        <v>3200</v>
+        <v>213600</v>
       </c>
       <c r="I249">
         <v>800</v>
@@ -24696,7 +24696,7 @@
         <v>372000</v>
       </c>
       <c r="H250">
-        <v>5600</v>
+        <v>234400</v>
       </c>
       <c r="I250">
         <v>800</v>
@@ -24785,7 +24785,7 @@
         <v>341400</v>
       </c>
       <c r="H251">
-        <v>4000</v>
+        <v>244800</v>
       </c>
       <c r="I251">
         <v>0</v>
@@ -24874,7 +24874,7 @@
         <v>372600</v>
       </c>
       <c r="H252">
-        <v>3200</v>
+        <v>256000</v>
       </c>
       <c r="I252">
         <v>0</v>
@@ -24963,7 +24963,7 @@
         <v>370800</v>
       </c>
       <c r="H253">
-        <v>2400</v>
+        <v>290400</v>
       </c>
       <c r="I253">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>369000</v>
       </c>
       <c r="H254">
-        <v>1600</v>
+        <v>276800</v>
       </c>
       <c r="I254">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>362400</v>
       </c>
       <c r="H255">
-        <v>3200</v>
+        <v>291200</v>
       </c>
       <c r="I255">
         <v>0</v>
@@ -25230,7 +25230,7 @@
         <v>378000</v>
       </c>
       <c r="H256">
-        <v>4000</v>
+        <v>295200</v>
       </c>
       <c r="I256">
         <v>0</v>
@@ -25319,7 +25319,7 @@
         <v>387600</v>
       </c>
       <c r="H257">
-        <v>3200</v>
+        <v>316800</v>
       </c>
       <c r="I257">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>381000</v>
       </c>
       <c r="H258">
-        <v>4000</v>
+        <v>326400</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -25497,7 +25497,7 @@
         <v>391800</v>
       </c>
       <c r="H259">
-        <v>4000</v>
+        <v>332000</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -25586,7 +25586,7 @@
         <v>403200</v>
       </c>
       <c r="H260">
-        <v>4800</v>
+        <v>389600</v>
       </c>
       <c r="I260">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>400800</v>
       </c>
       <c r="H261">
-        <v>4800</v>
+        <v>333600</v>
       </c>
       <c r="I261">
         <v>0</v>
@@ -25764,7 +25764,7 @@
         <v>411000</v>
       </c>
       <c r="H262">
-        <v>5600</v>
+        <v>332000</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -25853,7 +25853,7 @@
         <v>412200</v>
       </c>
       <c r="H263">
-        <v>4800</v>
+        <v>326400</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -25942,7 +25942,7 @@
         <v>415200</v>
       </c>
       <c r="H264">
-        <v>5600</v>
+        <v>331200</v>
       </c>
       <c r="I264">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>420600</v>
       </c>
       <c r="H265">
-        <v>4800</v>
+        <v>324000</v>
       </c>
       <c r="I265">
         <v>0</v>
@@ -26120,7 +26120,7 @@
         <v>418800</v>
       </c>
       <c r="H266">
-        <v>5600</v>
+        <v>364000</v>
       </c>
       <c r="I266">
         <v>0</v>
@@ -26209,7 +26209,7 @@
         <v>418800</v>
       </c>
       <c r="H267">
-        <v>5600</v>
+        <v>339200</v>
       </c>
       <c r="I267">
         <v>0</v>
@@ -26298,7 +26298,7 @@
         <v>415200</v>
       </c>
       <c r="H268">
-        <v>5600</v>
+        <v>408800</v>
       </c>
       <c r="I268">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>426600</v>
       </c>
       <c r="H269">
-        <v>5600</v>
+        <v>332800</v>
       </c>
       <c r="I269">
         <v>0</v>
@@ -26476,7 +26476,7 @@
         <v>415200</v>
       </c>
       <c r="H270">
-        <v>4800</v>
+        <v>331200</v>
       </c>
       <c r="I270">
         <v>0</v>
@@ -26565,7 +26565,7 @@
         <v>413400</v>
       </c>
       <c r="H271">
-        <v>5600</v>
+        <v>309600</v>
       </c>
       <c r="I271">
         <v>0</v>
@@ -26601,7 +26601,7 @@
         <v>0</v>
       </c>
       <c r="U271">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="V271">
         <v>0</v>
@@ -26654,7 +26654,7 @@
         <v>406800</v>
       </c>
       <c r="H272">
-        <v>5600</v>
+        <v>324800</v>
       </c>
       <c r="I272">
         <v>0</v>
@@ -26690,7 +26690,7 @@
         <v>0</v>
       </c>
       <c r="U272">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V272">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>382200</v>
       </c>
       <c r="H273">
-        <v>5600</v>
+        <v>328800</v>
       </c>
       <c r="I273">
         <v>0</v>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="U273">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V273">
         <v>0</v>
@@ -26832,7 +26832,7 @@
         <v>368400</v>
       </c>
       <c r="H274">
-        <v>4800</v>
+        <v>289600</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -26868,7 +26868,7 @@
         <v>0</v>
       </c>
       <c r="U274">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V274">
         <v>0</v>
@@ -26921,7 +26921,7 @@
         <v>398400</v>
       </c>
       <c r="H275">
-        <v>4000</v>
+        <v>280000</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         <v>0</v>
       </c>
       <c r="U275">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V275">
         <v>0</v>
@@ -27010,7 +27010,7 @@
         <v>415800</v>
       </c>
       <c r="H276">
-        <v>4000</v>
+        <v>298400</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -27046,7 +27046,7 @@
         <v>0</v>
       </c>
       <c r="U276">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V276">
         <v>0</v>
@@ -27099,7 +27099,7 @@
         <v>410400</v>
       </c>
       <c r="H277">
-        <v>4800</v>
+        <v>279200</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -27135,7 +27135,7 @@
         <v>0</v>
       </c>
       <c r="U277">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V277">
         <v>0</v>
@@ -27188,7 +27188,7 @@
         <v>381600</v>
       </c>
       <c r="H278">
-        <v>4000</v>
+        <v>232000</v>
       </c>
       <c r="I278">
         <v>0</v>
@@ -27224,7 +27224,7 @@
         <v>0</v>
       </c>
       <c r="U278">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V278">
         <v>0</v>
@@ -27277,7 +27277,7 @@
         <v>378000</v>
       </c>
       <c r="H279">
-        <v>4000</v>
+        <v>230400</v>
       </c>
       <c r="I279">
         <v>0</v>
@@ -27313,7 +27313,7 @@
         <v>0</v>
       </c>
       <c r="U279">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V279">
         <v>0</v>
@@ -27366,7 +27366,7 @@
         <v>381600</v>
       </c>
       <c r="H280">
-        <v>4000</v>
+        <v>240800</v>
       </c>
       <c r="I280">
         <v>0</v>
@@ -27402,7 +27402,7 @@
         <v>330.00000000000017</v>
       </c>
       <c r="U280">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V280">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         <v>405600</v>
       </c>
       <c r="H281">
-        <v>4000</v>
+        <v>224000</v>
       </c>
       <c r="I281">
         <v>0</v>
@@ -27491,7 +27491,7 @@
         <v>330.00000000000017</v>
       </c>
       <c r="U281">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V281">
         <v>0</v>
@@ -27544,7 +27544,7 @@
         <v>402000</v>
       </c>
       <c r="H282">
-        <v>4000</v>
+        <v>193600</v>
       </c>
       <c r="I282">
         <v>0</v>
@@ -27580,7 +27580,7 @@
         <v>330.00000000000017</v>
       </c>
       <c r="U282">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V282">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>404400</v>
       </c>
       <c r="H283">
-        <v>4000</v>
+        <v>151200</v>
       </c>
       <c r="I283">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>330.00000000000017</v>
       </c>
       <c r="U283">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V283">
         <v>0</v>
@@ -27722,7 +27722,7 @@
         <v>411000</v>
       </c>
       <c r="H284">
-        <v>4000</v>
+        <v>146400</v>
       </c>
       <c r="I284">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>15120.000000000007</v>
       </c>
       <c r="U284">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V284">
         <v>0</v>
@@ -27811,7 +27811,7 @@
         <v>420000</v>
       </c>
       <c r="H285">
-        <v>4000</v>
+        <v>158400</v>
       </c>
       <c r="I285">
         <v>0</v>
@@ -27847,7 +27847,7 @@
         <v>15390.000000000007</v>
       </c>
       <c r="U285">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V285">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>419400</v>
       </c>
       <c r="H286">
-        <v>4000</v>
+        <v>145600</v>
       </c>
       <c r="I286">
         <v>0</v>
@@ -27936,7 +27936,7 @@
         <v>16110.000000000007</v>
       </c>
       <c r="U286">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V286">
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>403800</v>
       </c>
       <c r="H287">
-        <v>4000</v>
+        <v>111200</v>
       </c>
       <c r="I287">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>1200</v>
       </c>
       <c r="U287">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V287">
         <v>0</v>
@@ -28078,7 +28078,7 @@
         <v>397200</v>
       </c>
       <c r="H288">
-        <v>4000</v>
+        <v>74400</v>
       </c>
       <c r="I288">
         <v>0</v>
@@ -28114,7 +28114,7 @@
         <v>0</v>
       </c>
       <c r="U288">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V288">
         <v>0</v>
@@ -28167,7 +28167,7 @@
         <v>396600</v>
       </c>
       <c r="H289">
-        <v>4000</v>
+        <v>41600</v>
       </c>
       <c r="I289">
         <v>0</v>
@@ -28203,7 +28203,7 @@
         <v>0</v>
       </c>
       <c r="U289">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V289">
         <v>0</v>
@@ -28256,7 +28256,7 @@
         <v>399000</v>
       </c>
       <c r="H290">
-        <v>4000</v>
+        <v>29600</v>
       </c>
       <c r="I290">
         <v>0</v>
@@ -28292,7 +28292,7 @@
         <v>4950.0000000000027</v>
       </c>
       <c r="U290">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V290">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>400800</v>
       </c>
       <c r="H291">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="I291">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>930.00000000000023</v>
       </c>
       <c r="U291">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V291">
         <v>0</v>
@@ -28434,7 +28434,7 @@
         <v>426600</v>
       </c>
       <c r="H292">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="I292">
         <v>0</v>
@@ -28470,7 +28470,7 @@
         <v>1320.0000000000007</v>
       </c>
       <c r="U292">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V292">
         <v>0</v>
@@ -28523,7 +28523,7 @@
         <v>416400</v>
       </c>
       <c r="H293">
-        <v>4000</v>
+        <v>26400</v>
       </c>
       <c r="I293">
         <v>0</v>
@@ -28559,7 +28559,7 @@
         <v>12210.000000000005</v>
       </c>
       <c r="U293">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V293">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>417000</v>
       </c>
       <c r="H294">
-        <v>4000</v>
+        <v>49600</v>
       </c>
       <c r="I294">
         <v>0</v>
@@ -28648,7 +28648,7 @@
         <v>11490.000000000005</v>
       </c>
       <c r="U294">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V294">
         <v>0</v>
@@ -28701,7 +28701,7 @@
         <v>408000</v>
       </c>
       <c r="H295">
-        <v>4000</v>
+        <v>64000</v>
       </c>
       <c r="I295">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>7590.0000000000036</v>
       </c>
       <c r="U295">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V295">
         <v>0</v>
@@ -28790,7 +28790,7 @@
         <v>420600</v>
       </c>
       <c r="H296">
-        <v>4000</v>
+        <v>92800</v>
       </c>
       <c r="I296">
         <v>0</v>
@@ -28826,7 +28826,7 @@
         <v>930.00000000000023</v>
       </c>
       <c r="U296">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V296">
         <v>0</v>
@@ -28879,7 +28879,7 @@
         <v>427200</v>
       </c>
       <c r="H297">
-        <v>4000</v>
+        <v>106400</v>
       </c>
       <c r="I297">
         <v>0</v>
@@ -28915,7 +28915,7 @@
         <v>330.00000000000017</v>
       </c>
       <c r="U297">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V297">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>397800</v>
       </c>
       <c r="H298">
-        <v>4000</v>
+        <v>133600</v>
       </c>
       <c r="I298">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>330.00000000000017</v>
       </c>
       <c r="U298">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V298">
         <v>0</v>
@@ -29057,7 +29057,7 @@
         <v>398400</v>
       </c>
       <c r="H299">
-        <v>4000</v>
+        <v>88000</v>
       </c>
       <c r="I299">
         <v>0</v>
@@ -29093,7 +29093,7 @@
         <v>330.00000000000017</v>
       </c>
       <c r="U299">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V299">
         <v>0</v>
@@ -29146,7 +29146,7 @@
         <v>405000</v>
       </c>
       <c r="H300">
-        <v>4000</v>
+        <v>49600</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -29182,7 +29182,7 @@
         <v>330.00000000000017</v>
       </c>
       <c r="U300">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V300">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>400800</v>
       </c>
       <c r="H301">
-        <v>4000</v>
+        <v>140800</v>
       </c>
       <c r="I301">
         <v>0</v>
@@ -29271,7 +29271,7 @@
         <v>0</v>
       </c>
       <c r="U301">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V301">
         <v>0</v>
@@ -29324,7 +29324,7 @@
         <v>417600</v>
       </c>
       <c r="H302">
-        <v>4000</v>
+        <v>112000</v>
       </c>
       <c r="I302">
         <v>0</v>
@@ -29360,7 +29360,7 @@
         <v>0</v>
       </c>
       <c r="U302">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V302">
         <v>0</v>
@@ -29413,7 +29413,7 @@
         <v>427800</v>
       </c>
       <c r="H303">
-        <v>4000</v>
+        <v>128800</v>
       </c>
       <c r="I303">
         <v>0</v>
@@ -29449,7 +29449,7 @@
         <v>0</v>
       </c>
       <c r="U303">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V303">
         <v>0</v>
@@ -29502,7 +29502,7 @@
         <v>423600</v>
       </c>
       <c r="H304">
-        <v>4000</v>
+        <v>94400</v>
       </c>
       <c r="I304">
         <v>0</v>
@@ -29538,7 +29538,7 @@
         <v>0</v>
       </c>
       <c r="U304">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V304">
         <v>0</v>
@@ -29591,7 +29591,7 @@
         <v>414000</v>
       </c>
       <c r="H305">
-        <v>4000</v>
+        <v>252000</v>
       </c>
       <c r="I305">
         <v>0</v>
@@ -29627,7 +29627,7 @@
         <v>0</v>
       </c>
       <c r="U305">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V305">
         <v>0</v>
@@ -29680,7 +29680,7 @@
         <v>411000</v>
       </c>
       <c r="H306">
-        <v>4000</v>
+        <v>296000</v>
       </c>
       <c r="I306">
         <v>0</v>
@@ -29716,7 +29716,7 @@
         <v>0</v>
       </c>
       <c r="U306">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V306">
         <v>0</v>
@@ -29769,7 +29769,7 @@
         <v>388200</v>
       </c>
       <c r="H307">
-        <v>4800</v>
+        <v>298400</v>
       </c>
       <c r="I307">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U307">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V307">
         <v>0</v>
@@ -29858,7 +29858,7 @@
         <v>381000</v>
       </c>
       <c r="H308">
-        <v>5600</v>
+        <v>297600</v>
       </c>
       <c r="I308">
         <v>0</v>
@@ -29894,7 +29894,7 @@
         <v>0</v>
       </c>
       <c r="U308">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V308">
         <v>0</v>
@@ -29947,7 +29947,7 @@
         <v>352200</v>
       </c>
       <c r="H309">
-        <v>4800</v>
+        <v>242400</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         <v>0</v>
       </c>
       <c r="U309">
-        <v>2040.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="V309">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>277800</v>
       </c>
       <c r="H310">
-        <v>4800</v>
+        <v>304000</v>
       </c>
       <c r="I310">
         <v>0</v>
@@ -30125,7 +30125,7 @@
         <v>315600</v>
       </c>
       <c r="H311">
-        <v>5600</v>
+        <v>278400</v>
       </c>
       <c r="I311">
         <v>0</v>
@@ -30214,7 +30214,7 @@
         <v>359400</v>
       </c>
       <c r="H312">
-        <v>4800</v>
+        <v>164800</v>
       </c>
       <c r="I312">
         <v>0</v>
@@ -30303,7 +30303,7 @@
         <v>397800</v>
       </c>
       <c r="H313">
-        <v>4800</v>
+        <v>201600</v>
       </c>
       <c r="I313">
         <v>0</v>
@@ -30392,7 +30392,7 @@
         <v>391800</v>
       </c>
       <c r="H314">
-        <v>4800</v>
+        <v>171200</v>
       </c>
       <c r="I314">
         <v>0</v>
@@ -30481,7 +30481,7 @@
         <v>364200</v>
       </c>
       <c r="H315">
-        <v>4800</v>
+        <v>184800</v>
       </c>
       <c r="I315">
         <v>0</v>
@@ -30570,7 +30570,7 @@
         <v>369000</v>
       </c>
       <c r="H316">
-        <v>4800</v>
+        <v>238400</v>
       </c>
       <c r="I316">
         <v>0</v>
@@ -30659,7 +30659,7 @@
         <v>373800</v>
       </c>
       <c r="H317">
-        <v>4800</v>
+        <v>280800</v>
       </c>
       <c r="I317">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>391800</v>
       </c>
       <c r="H318">
-        <v>4800</v>
+        <v>225600</v>
       </c>
       <c r="I318">
         <v>0</v>
@@ -30837,7 +30837,7 @@
         <v>398400</v>
       </c>
       <c r="H319">
-        <v>4800</v>
+        <v>278400</v>
       </c>
       <c r="I319">
         <v>0</v>
@@ -30926,7 +30926,7 @@
         <v>403200</v>
       </c>
       <c r="H320">
-        <v>5600</v>
+        <v>276800</v>
       </c>
       <c r="I320">
         <v>0</v>
@@ -31015,7 +31015,7 @@
         <v>365400</v>
       </c>
       <c r="H321">
-        <v>4000</v>
+        <v>254400</v>
       </c>
       <c r="I321">
         <v>0</v>
@@ -31104,7 +31104,7 @@
         <v>400200</v>
       </c>
       <c r="H322">
-        <v>4800</v>
+        <v>254400</v>
       </c>
       <c r="I322">
         <v>0</v>
@@ -31193,7 +31193,7 @@
         <v>416400</v>
       </c>
       <c r="H323">
-        <v>2400</v>
+        <v>256800</v>
       </c>
       <c r="I323">
         <v>0</v>
@@ -31282,7 +31282,7 @@
         <v>399000</v>
       </c>
       <c r="H324">
-        <v>2400</v>
+        <v>259200</v>
       </c>
       <c r="I324">
         <v>0</v>
@@ -31371,7 +31371,7 @@
         <v>408000</v>
       </c>
       <c r="H325">
-        <v>800</v>
+        <v>259200</v>
       </c>
       <c r="I325">
         <v>0</v>
@@ -31460,7 +31460,7 @@
         <v>387000</v>
       </c>
       <c r="H326">
-        <v>800</v>
+        <v>259200</v>
       </c>
       <c r="I326">
         <v>0</v>
@@ -31549,7 +31549,7 @@
         <v>390600</v>
       </c>
       <c r="H327">
-        <v>800</v>
+        <v>257600</v>
       </c>
       <c r="I327">
         <v>0</v>
@@ -31638,7 +31638,7 @@
         <v>397200</v>
       </c>
       <c r="H328">
-        <v>1600</v>
+        <v>256000</v>
       </c>
       <c r="I328">
         <v>800</v>
@@ -31727,7 +31727,7 @@
         <v>403800</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>252800</v>
       </c>
       <c r="I329">
         <v>0</v>
@@ -31816,7 +31816,7 @@
         <v>393600</v>
       </c>
       <c r="H330">
-        <v>1600</v>
+        <v>248000</v>
       </c>
       <c r="I330">
         <v>0</v>
@@ -31905,7 +31905,7 @@
         <v>421200</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>243200</v>
       </c>
       <c r="I331">
         <v>0</v>
@@ -31994,7 +31994,7 @@
         <v>424800</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>236800</v>
       </c>
       <c r="I332">
         <v>0</v>
@@ -32083,7 +32083,7 @@
         <v>419400</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>230400</v>
       </c>
       <c r="I333">
         <v>0</v>
@@ -32172,7 +32172,7 @@
         <v>422400</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>219200</v>
       </c>
       <c r="I334">
         <v>0</v>
@@ -32261,7 +32261,7 @@
         <v>423600</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>206400</v>
       </c>
       <c r="I335">
         <v>0</v>
@@ -32350,7 +32350,7 @@
         <v>450600</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>209600</v>
       </c>
       <c r="I336">
         <v>800</v>
@@ -32439,7 +32439,7 @@
         <v>437400</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>212000</v>
       </c>
       <c r="I337">
         <v>0</v>
@@ -32528,7 +32528,7 @@
         <v>430800</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>215200</v>
       </c>
       <c r="I338">
         <v>800</v>
@@ -32564,7 +32564,7 @@
         <v>3300.0000000000018</v>
       </c>
       <c r="U338">
-        <v>0</v>
+        <v>280.00000000000006</v>
       </c>
       <c r="V338">
         <v>0</v>
@@ -32617,7 +32617,7 @@
         <v>429000</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>219200</v>
       </c>
       <c r="I339">
         <v>800</v>
@@ -32653,7 +32653,7 @@
         <v>3630.0000000000018</v>
       </c>
       <c r="U339">
-        <v>0</v>
+        <v>3320.0000000000005</v>
       </c>
       <c r="V339">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>421200</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>219200</v>
       </c>
       <c r="I340">
         <v>0</v>
@@ -32742,7 +32742,7 @@
         <v>2910.0000000000009</v>
       </c>
       <c r="U340">
-        <v>0</v>
+        <v>1680.0000000000005</v>
       </c>
       <c r="V340">
         <v>0</v>
@@ -32795,7 +32795,7 @@
         <v>397800</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>232800</v>
       </c>
       <c r="I341">
         <v>0</v>
@@ -32831,7 +32831,7 @@
         <v>2310.0000000000009</v>
       </c>
       <c r="U341">
-        <v>0</v>
+        <v>1680.0000000000005</v>
       </c>
       <c r="V341">
         <v>0</v>
@@ -32884,7 +32884,7 @@
         <v>394800</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>252000</v>
       </c>
       <c r="I342">
         <v>1600</v>
@@ -32920,7 +32920,7 @@
         <v>0</v>
       </c>
       <c r="U342">
-        <v>0</v>
+        <v>1640.0000000000002</v>
       </c>
       <c r="V342">
         <v>0</v>
@@ -32973,7 +32973,7 @@
         <v>393000</v>
       </c>
       <c r="H343">
-        <v>800</v>
+        <v>200800</v>
       </c>
       <c r="I343">
         <v>0</v>
@@ -33009,7 +33009,7 @@
         <v>0</v>
       </c>
       <c r="U343">
-        <v>0</v>
+        <v>280.00000000000006</v>
       </c>
       <c r="V343">
         <v>0</v>
@@ -33062,7 +33062,7 @@
         <v>381000</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>204000</v>
       </c>
       <c r="I344">
         <v>800</v>
@@ -33151,7 +33151,7 @@
         <v>382200</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>219200</v>
       </c>
       <c r="I345">
         <v>0</v>
@@ -33240,7 +33240,7 @@
         <v>361800</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>246400</v>
       </c>
       <c r="I346">
         <v>0</v>
@@ -33329,7 +33329,7 @@
         <v>349200</v>
       </c>
       <c r="H347">
-        <v>2400</v>
+        <v>249600</v>
       </c>
       <c r="I347">
         <v>0</v>
@@ -33418,7 +33418,7 @@
         <v>367200</v>
       </c>
       <c r="H348">
-        <v>5600</v>
+        <v>261600</v>
       </c>
       <c r="I348">
         <v>0</v>
@@ -33507,7 +33507,7 @@
         <v>418800</v>
       </c>
       <c r="H349">
-        <v>4000</v>
+        <v>269600</v>
       </c>
       <c r="I349">
         <v>0</v>
@@ -33596,7 +33596,7 @@
         <v>403200</v>
       </c>
       <c r="H350">
-        <v>1600</v>
+        <v>290400</v>
       </c>
       <c r="I350">
         <v>0</v>
@@ -33685,7 +33685,7 @@
         <v>423000</v>
       </c>
       <c r="H351">
-        <v>1600</v>
+        <v>318400</v>
       </c>
       <c r="I351">
         <v>0</v>
@@ -33774,7 +33774,7 @@
         <v>426600</v>
       </c>
       <c r="H352">
-        <v>3200</v>
+        <v>316000</v>
       </c>
       <c r="I352">
         <v>0</v>
@@ -33863,7 +33863,7 @@
         <v>428400</v>
       </c>
       <c r="H353">
-        <v>4800</v>
+        <v>311200</v>
       </c>
       <c r="I353">
         <v>0</v>
@@ -33952,7 +33952,7 @@
         <v>422400</v>
       </c>
       <c r="H354">
-        <v>4000</v>
+        <v>332800</v>
       </c>
       <c r="I354">
         <v>0</v>
@@ -34041,7 +34041,7 @@
         <v>412200</v>
       </c>
       <c r="H355">
-        <v>5600</v>
+        <v>309600</v>
       </c>
       <c r="I355">
         <v>0</v>
@@ -34130,7 +34130,7 @@
         <v>414600</v>
       </c>
       <c r="H356">
-        <v>4800</v>
+        <v>315200</v>
       </c>
       <c r="I356">
         <v>0</v>
@@ -34219,7 +34219,7 @@
         <v>425400</v>
       </c>
       <c r="H357">
-        <v>5600</v>
+        <v>358400</v>
       </c>
       <c r="I357">
         <v>0</v>
@@ -34308,7 +34308,7 @@
         <v>425400</v>
       </c>
       <c r="H358">
-        <v>5600</v>
+        <v>320800</v>
       </c>
       <c r="I358">
         <v>0</v>
@@ -34397,7 +34397,7 @@
         <v>434400</v>
       </c>
       <c r="H359">
-        <v>4800</v>
+        <v>344800</v>
       </c>
       <c r="I359">
         <v>0</v>
@@ -34486,7 +34486,7 @@
         <v>430800</v>
       </c>
       <c r="H360">
-        <v>5600</v>
+        <v>328000</v>
       </c>
       <c r="I360">
         <v>0</v>
@@ -34575,7 +34575,7 @@
         <v>415800</v>
       </c>
       <c r="H361">
-        <v>4800</v>
+        <v>339200</v>
       </c>
       <c r="I361">
         <v>0</v>
@@ -34664,7 +34664,7 @@
         <v>424200</v>
       </c>
       <c r="H362">
-        <v>5600</v>
+        <v>402400</v>
       </c>
       <c r="I362">
         <v>0</v>
@@ -34753,7 +34753,7 @@
         <v>430200</v>
       </c>
       <c r="H363">
-        <v>5600</v>
+        <v>347200</v>
       </c>
       <c r="I363">
         <v>0</v>
@@ -34842,7 +34842,7 @@
         <v>418800</v>
       </c>
       <c r="H364">
-        <v>4800</v>
+        <v>332000</v>
       </c>
       <c r="I364">
         <v>0</v>
@@ -34931,7 +34931,7 @@
         <v>432000</v>
       </c>
       <c r="H365">
-        <v>4800</v>
+        <v>316800</v>
       </c>
       <c r="I365">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>420000</v>
       </c>
       <c r="H366">
-        <v>5600</v>
+        <v>370400</v>
       </c>
       <c r="I366">
         <v>0</v>
@@ -35109,7 +35109,7 @@
         <v>424200</v>
       </c>
       <c r="H367">
-        <v>5600</v>
+        <v>320800</v>
       </c>
       <c r="I367">
         <v>0</v>
@@ -35198,7 +35198,7 @@
         <v>427200</v>
       </c>
       <c r="H368">
-        <v>5600</v>
+        <v>308800</v>
       </c>
       <c r="I368">
         <v>0</v>
@@ -35234,7 +35234,7 @@
         <v>32670.000000000004</v>
       </c>
       <c r="U368">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V368">
         <v>0</v>
@@ -35287,7 +35287,7 @@
         <v>430800</v>
       </c>
       <c r="H369">
-        <v>5600</v>
+        <v>314400</v>
       </c>
       <c r="I369">
         <v>0</v>
@@ -35323,7 +35323,7 @@
         <v>14070.000000000004</v>
       </c>
       <c r="U369">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V369">
         <v>0</v>
@@ -35376,7 +35376,7 @@
         <v>418200</v>
       </c>
       <c r="H370">
-        <v>4800</v>
+        <v>322400</v>
       </c>
       <c r="I370">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>20130.000000000007</v>
       </c>
       <c r="U370">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V370">
         <v>0</v>
@@ -35465,7 +35465,7 @@
         <v>413400</v>
       </c>
       <c r="H371">
-        <v>4000</v>
+        <v>268800</v>
       </c>
       <c r="I371">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>4710.0000000000009</v>
       </c>
       <c r="U371">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V371">
         <v>0</v>
@@ -35554,7 +35554,7 @@
         <v>406200</v>
       </c>
       <c r="H372">
-        <v>4000</v>
+        <v>254400</v>
       </c>
       <c r="I372">
         <v>0</v>
@@ -35590,7 +35590,7 @@
         <v>0</v>
       </c>
       <c r="U372">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V372">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>378600</v>
       </c>
       <c r="H373">
-        <v>4000</v>
+        <v>261600</v>
       </c>
       <c r="I373">
         <v>0</v>
@@ -35679,7 +35679,7 @@
         <v>330.00000000000017</v>
       </c>
       <c r="U373">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V373">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>356400</v>
       </c>
       <c r="H374">
-        <v>4800</v>
+        <v>270400</v>
       </c>
       <c r="I374">
         <v>0</v>
@@ -35768,7 +35768,7 @@
         <v>0</v>
       </c>
       <c r="U374">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V374">
         <v>0</v>
@@ -35821,7 +35821,7 @@
         <v>355200</v>
       </c>
       <c r="H375">
-        <v>4000</v>
+        <v>260800</v>
       </c>
       <c r="I375">
         <v>0</v>
@@ -35857,7 +35857,7 @@
         <v>0</v>
       </c>
       <c r="U375">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V375">
         <v>0</v>
@@ -35910,7 +35910,7 @@
         <v>392400</v>
       </c>
       <c r="H376">
-        <v>4000</v>
+        <v>201600</v>
       </c>
       <c r="I376">
         <v>0</v>
@@ -35946,7 +35946,7 @@
         <v>18690.000000000007</v>
       </c>
       <c r="U376">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V376">
         <v>0</v>
@@ -35999,7 +35999,7 @@
         <v>402000</v>
       </c>
       <c r="H377">
-        <v>4000</v>
+        <v>180800</v>
       </c>
       <c r="I377">
         <v>0</v>
@@ -36035,7 +36035,7 @@
         <v>20250.000000000004</v>
       </c>
       <c r="U377">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V377">
         <v>0</v>
@@ -36088,7 +36088,7 @@
         <v>394200</v>
       </c>
       <c r="H378">
-        <v>4000</v>
+        <v>177600</v>
       </c>
       <c r="I378">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>30330</v>
       </c>
       <c r="U378">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V378">
         <v>0</v>
@@ -36177,7 +36177,7 @@
         <v>418800</v>
       </c>
       <c r="H379">
-        <v>4000</v>
+        <v>148000</v>
       </c>
       <c r="I379">
         <v>0</v>
@@ -36213,7 +36213,7 @@
         <v>30330</v>
       </c>
       <c r="U379">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V379">
         <v>0</v>
@@ -36266,7 +36266,7 @@
         <v>408000</v>
       </c>
       <c r="H380">
-        <v>4000</v>
+        <v>145600</v>
       </c>
       <c r="I380">
         <v>0</v>
@@ -36302,7 +36302,7 @@
         <v>29970</v>
       </c>
       <c r="U380">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V380">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>403200</v>
       </c>
       <c r="H381">
-        <v>4000</v>
+        <v>121600</v>
       </c>
       <c r="I381">
         <v>0</v>
@@ -36391,7 +36391,7 @@
         <v>34680</v>
       </c>
       <c r="U381">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V381">
         <v>0</v>
@@ -36444,7 +36444,7 @@
         <v>420000</v>
       </c>
       <c r="H382">
-        <v>4000</v>
+        <v>100800</v>
       </c>
       <c r="I382">
         <v>0</v>
@@ -36480,7 +36480,7 @@
         <v>34560</v>
       </c>
       <c r="U382">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V382">
         <v>0</v>
@@ -36533,7 +36533,7 @@
         <v>407400</v>
       </c>
       <c r="H383">
-        <v>4000</v>
+        <v>87200</v>
       </c>
       <c r="I383">
         <v>0</v>
@@ -36569,7 +36569,7 @@
         <v>32520</v>
       </c>
       <c r="U383">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V383">
         <v>0</v>
@@ -36622,7 +36622,7 @@
         <v>403200</v>
       </c>
       <c r="H384">
-        <v>4000</v>
+        <v>72800</v>
       </c>
       <c r="I384">
         <v>0</v>
@@ -36658,7 +36658,7 @@
         <v>31260</v>
       </c>
       <c r="U384">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V384">
         <v>0</v>
@@ -36711,7 +36711,7 @@
         <v>400200</v>
       </c>
       <c r="H385">
-        <v>4000</v>
+        <v>45600</v>
       </c>
       <c r="I385">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>21120.000000000007</v>
       </c>
       <c r="U385">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V385">
         <v>0</v>
@@ -36800,7 +36800,7 @@
         <v>400200</v>
       </c>
       <c r="H386">
-        <v>4000</v>
+        <v>33600</v>
       </c>
       <c r="I386">
         <v>0</v>
@@ -36836,7 +36836,7 @@
         <v>21780.000000000007</v>
       </c>
       <c r="U386">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V386">
         <v>0</v>
@@ -36889,7 +36889,7 @@
         <v>400200</v>
       </c>
       <c r="H387">
-        <v>4000</v>
+        <v>25600</v>
       </c>
       <c r="I387">
         <v>0</v>
@@ -36925,7 +36925,7 @@
         <v>22830.000000000007</v>
       </c>
       <c r="U387">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V387">
         <v>0</v>
@@ -36978,7 +36978,7 @@
         <v>391200</v>
       </c>
       <c r="H388">
-        <v>4000</v>
+        <v>15200</v>
       </c>
       <c r="I388">
         <v>0</v>
@@ -37014,7 +37014,7 @@
         <v>15240.000000000004</v>
       </c>
       <c r="U388">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V388">
         <v>0</v>
@@ -37067,7 +37067,7 @@
         <v>400200</v>
       </c>
       <c r="H389">
-        <v>4000</v>
+        <v>6400</v>
       </c>
       <c r="I389">
         <v>0</v>
@@ -37103,7 +37103,7 @@
         <v>10290.000000000002</v>
       </c>
       <c r="U389">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V389">
         <v>0</v>
@@ -37192,7 +37192,7 @@
         <v>11220.000000000002</v>
       </c>
       <c r="U390">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V390">
         <v>0</v>
@@ -37281,7 +37281,7 @@
         <v>3300.0000000000018</v>
       </c>
       <c r="U391">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V391">
         <v>0</v>
@@ -37334,7 +37334,7 @@
         <v>391200</v>
       </c>
       <c r="H392">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="I392">
         <v>0</v>
@@ -37370,7 +37370,7 @@
         <v>3630.0000000000018</v>
       </c>
       <c r="U392">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V392">
         <v>0</v>
@@ -37423,7 +37423,7 @@
         <v>396000</v>
       </c>
       <c r="H393">
-        <v>4000</v>
+        <v>16800</v>
       </c>
       <c r="I393">
         <v>0</v>
@@ -37459,7 +37459,7 @@
         <v>3630.0000000000018</v>
       </c>
       <c r="U393">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V393">
         <v>0</v>
@@ -37512,7 +37512,7 @@
         <v>402000</v>
       </c>
       <c r="H394">
-        <v>4000</v>
+        <v>50400</v>
       </c>
       <c r="I394">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>3300.0000000000018</v>
       </c>
       <c r="U394">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V394">
         <v>0</v>
@@ -37601,7 +37601,7 @@
         <v>390600</v>
       </c>
       <c r="H395">
-        <v>4000</v>
+        <v>36800</v>
       </c>
       <c r="I395">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>3300.0000000000018</v>
       </c>
       <c r="U395">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V395">
         <v>0</v>
@@ -37690,7 +37690,7 @@
         <v>395400</v>
       </c>
       <c r="H396">
-        <v>4000</v>
+        <v>44800</v>
       </c>
       <c r="I396">
         <v>0</v>
@@ -37726,7 +37726,7 @@
         <v>3630.0000000000018</v>
       </c>
       <c r="U396">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V396">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>384000</v>
       </c>
       <c r="H397">
-        <v>4000</v>
+        <v>34400</v>
       </c>
       <c r="I397">
         <v>0</v>
@@ -37815,7 +37815,7 @@
         <v>3630.0000000000018</v>
       </c>
       <c r="U397">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V397">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>378600</v>
       </c>
       <c r="H398">
-        <v>4000</v>
+        <v>56000</v>
       </c>
       <c r="I398">
         <v>0</v>
@@ -37904,7 +37904,7 @@
         <v>3300.0000000000018</v>
       </c>
       <c r="U398">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V398">
         <v>0</v>
@@ -37957,7 +37957,7 @@
         <v>379200</v>
       </c>
       <c r="H399">
-        <v>4000</v>
+        <v>83200</v>
       </c>
       <c r="I399">
         <v>0</v>
@@ -37993,7 +37993,7 @@
         <v>3630.0000000000018</v>
       </c>
       <c r="U399">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V399">
         <v>0</v>
@@ -38046,7 +38046,7 @@
         <v>375000</v>
       </c>
       <c r="H400">
-        <v>4000</v>
+        <v>133600</v>
       </c>
       <c r="I400">
         <v>0</v>
@@ -38082,7 +38082,7 @@
         <v>0</v>
       </c>
       <c r="U400">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V400">
         <v>0</v>
@@ -38135,7 +38135,7 @@
         <v>367800</v>
       </c>
       <c r="H401">
-        <v>4000</v>
+        <v>205600</v>
       </c>
       <c r="I401">
         <v>0</v>
@@ -38171,7 +38171,7 @@
         <v>0</v>
       </c>
       <c r="U401">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V401">
         <v>0</v>
@@ -38224,7 +38224,7 @@
         <v>366000</v>
       </c>
       <c r="H402">
-        <v>4000</v>
+        <v>140800</v>
       </c>
       <c r="I402">
         <v>0</v>
@@ -38260,7 +38260,7 @@
         <v>0</v>
       </c>
       <c r="U402">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V402">
         <v>0</v>
@@ -38313,7 +38313,7 @@
         <v>312000</v>
       </c>
       <c r="H403">
-        <v>4000</v>
+        <v>108800</v>
       </c>
       <c r="I403">
         <v>0</v>
@@ -38349,7 +38349,7 @@
         <v>3630.0000000000018</v>
       </c>
       <c r="U403">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V403">
         <v>0</v>
@@ -38402,7 +38402,7 @@
         <v>284400</v>
       </c>
       <c r="H404">
-        <v>5600</v>
+        <v>151200</v>
       </c>
       <c r="I404">
         <v>0</v>
@@ -38438,7 +38438,7 @@
         <v>0</v>
       </c>
       <c r="U404">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V404">
         <v>0</v>
@@ -38491,7 +38491,7 @@
         <v>280800</v>
       </c>
       <c r="H405">
-        <v>5600</v>
+        <v>260800</v>
       </c>
       <c r="I405">
         <v>0</v>
@@ -38527,7 +38527,7 @@
         <v>0</v>
       </c>
       <c r="U405">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="V405">
         <v>0</v>
@@ -38580,7 +38580,7 @@
         <v>273600</v>
       </c>
       <c r="H406">
-        <v>4800</v>
+        <v>195200</v>
       </c>
       <c r="I406">
         <v>0</v>
@@ -38669,7 +38669,7 @@
         <v>328200</v>
       </c>
       <c r="H407">
-        <v>4800</v>
+        <v>172000</v>
       </c>
       <c r="I407">
         <v>0</v>
@@ -38758,7 +38758,7 @@
         <v>357600</v>
       </c>
       <c r="H408">
-        <v>4800</v>
+        <v>295200</v>
       </c>
       <c r="I408">
         <v>0</v>
@@ -38847,7 +38847,7 @@
         <v>384600</v>
       </c>
       <c r="H409">
-        <v>4800</v>
+        <v>251200</v>
       </c>
       <c r="I409">
         <v>0</v>
@@ -38936,7 +38936,7 @@
         <v>361800</v>
       </c>
       <c r="H410">
-        <v>4800</v>
+        <v>237600</v>
       </c>
       <c r="I410">
         <v>0</v>
@@ -39025,7 +39025,7 @@
         <v>379800</v>
       </c>
       <c r="H411">
-        <v>4800</v>
+        <v>180800</v>
       </c>
       <c r="I411">
         <v>0</v>
@@ -39114,7 +39114,7 @@
         <v>370200</v>
       </c>
       <c r="H412">
-        <v>4800</v>
+        <v>177600</v>
       </c>
       <c r="I412">
         <v>0</v>
@@ -39203,7 +39203,7 @@
         <v>346200</v>
       </c>
       <c r="H413">
-        <v>5600</v>
+        <v>200800</v>
       </c>
       <c r="I413">
         <v>0</v>
@@ -39292,7 +39292,7 @@
         <v>354600</v>
       </c>
       <c r="H414">
-        <v>4800</v>
+        <v>220000</v>
       </c>
       <c r="I414">
         <v>0</v>
@@ -39381,7 +39381,7 @@
         <v>358200</v>
       </c>
       <c r="H415">
-        <v>4800</v>
+        <v>231200</v>
       </c>
       <c r="I415">
         <v>0</v>
@@ -39470,7 +39470,7 @@
         <v>369000</v>
       </c>
       <c r="H416">
-        <v>5600</v>
+        <v>238400</v>
       </c>
       <c r="I416">
         <v>0</v>
@@ -39559,7 +39559,7 @@
         <v>378000</v>
       </c>
       <c r="H417">
-        <v>5600</v>
+        <v>241600</v>
       </c>
       <c r="I417">
         <v>0</v>
@@ -39648,7 +39648,7 @@
         <v>392400</v>
       </c>
       <c r="H418">
-        <v>4000</v>
+        <v>248800</v>
       </c>
       <c r="I418">
         <v>0</v>
@@ -39737,7 +39737,7 @@
         <v>399600</v>
       </c>
       <c r="H419">
-        <v>1600</v>
+        <v>254400</v>
       </c>
       <c r="I419">
         <v>0</v>
@@ -39826,7 +39826,7 @@
         <v>381600</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>245600</v>
       </c>
       <c r="I420">
         <v>0</v>
@@ -39915,7 +39915,7 @@
         <v>383400</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>254400</v>
       </c>
       <c r="I421">
         <v>0</v>
@@ -40004,7 +40004,7 @@
         <v>384000</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>259200</v>
       </c>
       <c r="I422">
         <v>0</v>
@@ -40093,7 +40093,7 @@
         <v>392400</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>238400</v>
       </c>
       <c r="I423">
         <v>0</v>
@@ -40182,7 +40182,7 @@
         <v>384000</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>244800</v>
       </c>
       <c r="I424">
         <v>0</v>
@@ -40271,7 +40271,7 @@
         <v>370200</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>247200</v>
       </c>
       <c r="I425">
         <v>0</v>
@@ -40360,7 +40360,7 @@
         <v>374400</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>238400</v>
       </c>
       <c r="I426">
         <v>0</v>
@@ -40449,7 +40449,7 @@
         <v>389400</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>233600</v>
       </c>
       <c r="I427">
         <v>0</v>
@@ -40538,7 +40538,7 @@
         <v>387600</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>232800</v>
       </c>
       <c r="I428">
         <v>800</v>
@@ -40627,7 +40627,7 @@
         <v>410400</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>207200</v>
       </c>
       <c r="I429">
         <v>0</v>
@@ -40716,7 +40716,7 @@
         <v>397200</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>210400</v>
       </c>
       <c r="I430">
         <v>800</v>
@@ -40805,7 +40805,7 @@
         <v>399600</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>202400</v>
       </c>
       <c r="I431">
         <v>800</v>
@@ -40894,7 +40894,7 @@
         <v>400200</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>204800</v>
       </c>
       <c r="I432">
         <v>1600</v>
@@ -40983,7 +40983,7 @@
         <v>401400</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>218400</v>
       </c>
       <c r="I433">
         <v>0</v>
@@ -41072,7 +41072,7 @@
         <v>406800</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>209600</v>
       </c>
       <c r="I434">
         <v>800</v>
@@ -41161,7 +41161,7 @@
         <v>415200</v>
       </c>
       <c r="H435">
-        <v>800</v>
+        <v>208000</v>
       </c>
       <c r="I435">
         <v>800</v>
@@ -41197,7 +41197,7 @@
         <v>0</v>
       </c>
       <c r="U435">
-        <v>0</v>
+        <v>1400.0000000000005</v>
       </c>
       <c r="V435">
         <v>0</v>
@@ -41250,7 +41250,7 @@
         <v>374400</v>
       </c>
       <c r="H436">
-        <v>3200</v>
+        <v>205600</v>
       </c>
       <c r="I436">
         <v>0</v>
@@ -41286,7 +41286,7 @@
         <v>0</v>
       </c>
       <c r="U436">
-        <v>0</v>
+        <v>4320</v>
       </c>
       <c r="V436">
         <v>0</v>
@@ -41339,7 +41339,7 @@
         <v>380400</v>
       </c>
       <c r="H437">
-        <v>4000</v>
+        <v>205600</v>
       </c>
       <c r="I437">
         <v>800</v>
@@ -41375,7 +41375,7 @@
         <v>0</v>
       </c>
       <c r="U437">
-        <v>0</v>
+        <v>2240.0000000000005</v>
       </c>
       <c r="V437">
         <v>0</v>
@@ -41428,7 +41428,7 @@
         <v>349800</v>
       </c>
       <c r="H438">
-        <v>3200</v>
+        <v>200000</v>
       </c>
       <c r="I438">
         <v>0</v>
@@ -41464,7 +41464,7 @@
         <v>0</v>
       </c>
       <c r="U438">
-        <v>0</v>
+        <v>1400.0000000000005</v>
       </c>
       <c r="V438">
         <v>0</v>
@@ -41517,7 +41517,7 @@
         <v>386400</v>
       </c>
       <c r="H439">
-        <v>2400</v>
+        <v>194400</v>
       </c>
       <c r="I439">
         <v>0</v>
@@ -41553,7 +41553,7 @@
         <v>0</v>
       </c>
       <c r="U439">
-        <v>0</v>
+        <v>280.00000000000006</v>
       </c>
       <c r="V439">
         <v>0</v>
@@ -41606,7 +41606,7 @@
         <v>345600</v>
       </c>
       <c r="H440">
-        <v>1600</v>
+        <v>199200</v>
       </c>
       <c r="I440">
         <v>800</v>
@@ -41695,7 +41695,7 @@
         <v>343200</v>
       </c>
       <c r="H441">
-        <v>800</v>
+        <v>214400</v>
       </c>
       <c r="I441">
         <v>0</v>
@@ -41784,7 +41784,7 @@
         <v>357600</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>229600</v>
       </c>
       <c r="I442">
         <v>0</v>
@@ -41873,7 +41873,7 @@
         <v>371400</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>244000</v>
       </c>
       <c r="I443">
         <v>0</v>
@@ -41962,7 +41962,7 @@
         <v>381000</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>258400</v>
       </c>
       <c r="I444">
         <v>0</v>
@@ -42051,7 +42051,7 @@
         <v>386400</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>288800</v>
       </c>
       <c r="I445">
         <v>0</v>
@@ -42140,7 +42140,7 @@
         <v>386400</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>278400</v>
       </c>
       <c r="I446">
         <v>0</v>
@@ -42229,7 +42229,7 @@
         <v>382800</v>
       </c>
       <c r="H447">
-        <v>800</v>
+        <v>300000</v>
       </c>
       <c r="I447">
         <v>0</v>
@@ -42318,7 +42318,7 @@
         <v>388200</v>
       </c>
       <c r="H448">
-        <v>3200</v>
+        <v>300000</v>
       </c>
       <c r="I448">
         <v>0</v>
@@ -42407,7 +42407,7 @@
         <v>402000</v>
       </c>
       <c r="H449">
-        <v>3200</v>
+        <v>313600</v>
       </c>
       <c r="I449">
         <v>0</v>
@@ -42496,7 +42496,7 @@
         <v>406200</v>
       </c>
       <c r="H450">
-        <v>4000</v>
+        <v>322400</v>
       </c>
       <c r="I450">
         <v>0</v>
@@ -42585,7 +42585,7 @@
         <v>411600</v>
       </c>
       <c r="H451">
-        <v>4800</v>
+        <v>337600</v>
       </c>
       <c r="I451">
         <v>0</v>
@@ -42674,7 +42674,7 @@
         <v>417600</v>
       </c>
       <c r="H452">
-        <v>5600</v>
+        <v>313600</v>
       </c>
       <c r="I452">
         <v>0</v>
@@ -42763,7 +42763,7 @@
         <v>424200</v>
       </c>
       <c r="H453">
-        <v>5600</v>
+        <v>317600</v>
       </c>
       <c r="I453">
         <v>0</v>
@@ -42852,7 +42852,7 @@
         <v>418200</v>
       </c>
       <c r="H454">
-        <v>5600</v>
+        <v>362400</v>
       </c>
       <c r="I454">
         <v>0</v>
@@ -42941,7 +42941,7 @@
         <v>435600</v>
       </c>
       <c r="H455">
-        <v>5600</v>
+        <v>357600</v>
       </c>
       <c r="I455">
         <v>0</v>
@@ -43030,7 +43030,7 @@
         <v>414000</v>
       </c>
       <c r="H456">
-        <v>5600</v>
+        <v>334400</v>
       </c>
       <c r="I456">
         <v>0</v>
@@ -43119,7 +43119,7 @@
         <v>407400</v>
       </c>
       <c r="H457">
-        <v>6400</v>
+        <v>316800</v>
       </c>
       <c r="I457">
         <v>0</v>
@@ -43208,7 +43208,7 @@
         <v>420000</v>
       </c>
       <c r="H458">
-        <v>4800</v>
+        <v>333600</v>
       </c>
       <c r="I458">
         <v>0</v>
@@ -43297,7 +43297,7 @@
         <v>421200</v>
       </c>
       <c r="H459">
-        <v>4800</v>
+        <v>335200</v>
       </c>
       <c r="I459">
         <v>0</v>
@@ -43386,7 +43386,7 @@
         <v>428400</v>
       </c>
       <c r="H460">
-        <v>4800</v>
+        <v>328000</v>
       </c>
       <c r="I460">
         <v>0</v>
@@ -43475,7 +43475,7 @@
         <v>439800</v>
       </c>
       <c r="H461">
-        <v>5600</v>
+        <v>322400</v>
       </c>
       <c r="I461">
         <v>0</v>
@@ -43564,7 +43564,7 @@
         <v>433800</v>
       </c>
       <c r="H462">
-        <v>5600</v>
+        <v>352000</v>
       </c>
       <c r="I462">
         <v>0</v>
@@ -43653,7 +43653,7 @@
         <v>441600</v>
       </c>
       <c r="H463">
-        <v>5600</v>
+        <v>307200</v>
       </c>
       <c r="I463">
         <v>0</v>
@@ -43689,7 +43689,7 @@
         <v>95370</v>
       </c>
       <c r="U463">
-        <v>440.00000000000023</v>
+        <v>0</v>
       </c>
       <c r="V463">
         <v>0</v>
@@ -43742,7 +43742,7 @@
         <v>441600</v>
       </c>
       <c r="H464">
-        <v>5600</v>
+        <v>297600</v>
       </c>
       <c r="I464">
         <v>0</v>
@@ -43778,7 +43778,7 @@
         <v>93780</v>
       </c>
       <c r="U464">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V464">
         <v>0</v>
@@ -43831,7 +43831,7 @@
         <v>439800</v>
       </c>
       <c r="H465">
-        <v>5600</v>
+        <v>282400</v>
       </c>
       <c r="I465">
         <v>0</v>
@@ -43867,7 +43867,7 @@
         <v>91860</v>
       </c>
       <c r="U465">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V465">
         <v>0</v>
@@ -43920,7 +43920,7 @@
         <v>436200</v>
       </c>
       <c r="H466">
-        <v>4800</v>
+        <v>286400</v>
       </c>
       <c r="I466">
         <v>0</v>
@@ -43956,7 +43956,7 @@
         <v>80790</v>
       </c>
       <c r="U466">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V466">
         <v>0</v>
@@ -44009,7 +44009,7 @@
         <v>419400</v>
       </c>
       <c r="H467">
-        <v>4000</v>
+        <v>308800</v>
       </c>
       <c r="I467">
         <v>0</v>
@@ -44045,7 +44045,7 @@
         <v>69540</v>
       </c>
       <c r="U467">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V467">
         <v>0</v>
@@ -44098,7 +44098,7 @@
         <v>414000</v>
       </c>
       <c r="H468">
-        <v>4000</v>
+        <v>255200</v>
       </c>
       <c r="I468">
         <v>0</v>
@@ -44134,7 +44134,7 @@
         <v>79620</v>
       </c>
       <c r="U468">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V468">
         <v>0</v>
@@ -44187,7 +44187,7 @@
         <v>372600</v>
       </c>
       <c r="H469">
-        <v>4000</v>
+        <v>232000</v>
       </c>
       <c r="I469">
         <v>0</v>
@@ -44223,7 +44223,7 @@
         <v>67350</v>
       </c>
       <c r="U469">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V469">
         <v>0</v>
@@ -44276,7 +44276,7 @@
         <v>327000</v>
       </c>
       <c r="H470">
-        <v>4000</v>
+        <v>217600</v>
       </c>
       <c r="I470">
         <v>0</v>
@@ -44312,7 +44312,7 @@
         <v>78300</v>
       </c>
       <c r="U470">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V470">
         <v>0</v>
@@ -44365,7 +44365,7 @@
         <v>356400</v>
       </c>
       <c r="H471">
-        <v>4000</v>
+        <v>204000</v>
       </c>
       <c r="I471">
         <v>0</v>
@@ -44401,7 +44401,7 @@
         <v>92760</v>
       </c>
       <c r="U471">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V471">
         <v>0</v>
@@ -44454,7 +44454,7 @@
         <v>384000</v>
       </c>
       <c r="H472">
-        <v>4000</v>
+        <v>197600</v>
       </c>
       <c r="I472">
         <v>0</v>
@@ -44490,7 +44490,7 @@
         <v>81330</v>
       </c>
       <c r="U472">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V472">
         <v>0</v>
@@ -44543,7 +44543,7 @@
         <v>396000</v>
       </c>
       <c r="H473">
-        <v>4000</v>
+        <v>169600</v>
       </c>
       <c r="I473">
         <v>0</v>
@@ -44579,7 +44579,7 @@
         <v>74790</v>
       </c>
       <c r="U473">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V473">
         <v>0</v>
@@ -44632,7 +44632,7 @@
         <v>396600</v>
       </c>
       <c r="H474">
-        <v>4000</v>
+        <v>154400</v>
       </c>
       <c r="I474">
         <v>0</v>
@@ -44668,7 +44668,7 @@
         <v>83490</v>
       </c>
       <c r="U474">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V474">
         <v>0</v>
@@ -44721,7 +44721,7 @@
         <v>405000</v>
       </c>
       <c r="H475">
-        <v>4000</v>
+        <v>137600</v>
       </c>
       <c r="I475">
         <v>0</v>
@@ -44757,7 +44757,7 @@
         <v>95910</v>
       </c>
       <c r="U475">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V475">
         <v>0</v>
@@ -44810,7 +44810,7 @@
         <v>430800</v>
       </c>
       <c r="H476">
-        <v>4000</v>
+        <v>129600</v>
       </c>
       <c r="I476">
         <v>0</v>
@@ -44846,7 +44846,7 @@
         <v>100590</v>
       </c>
       <c r="U476">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V476">
         <v>0</v>
@@ -44899,7 +44899,7 @@
         <v>432000</v>
       </c>
       <c r="H477">
-        <v>4000</v>
+        <v>130400</v>
       </c>
       <c r="I477">
         <v>0</v>
@@ -44935,7 +44935,7 @@
         <v>125310</v>
       </c>
       <c r="U477">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V477">
         <v>0</v>
@@ -44988,7 +44988,7 @@
         <v>419400</v>
       </c>
       <c r="H478">
-        <v>4000</v>
+        <v>102400</v>
       </c>
       <c r="I478">
         <v>0</v>
@@ -45024,7 +45024,7 @@
         <v>121920</v>
       </c>
       <c r="U478">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V478">
         <v>0</v>
@@ -45077,7 +45077,7 @@
         <v>421200</v>
       </c>
       <c r="H479">
-        <v>4000</v>
+        <v>69600</v>
       </c>
       <c r="I479">
         <v>0</v>
@@ -45113,7 +45113,7 @@
         <v>116040</v>
       </c>
       <c r="U479">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V479">
         <v>0</v>
@@ -45166,7 +45166,7 @@
         <v>413400</v>
       </c>
       <c r="H480">
-        <v>4000</v>
+        <v>52800</v>
       </c>
       <c r="I480">
         <v>0</v>
@@ -45202,7 +45202,7 @@
         <v>105960</v>
       </c>
       <c r="U480">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V480">
         <v>0</v>
@@ -45255,7 +45255,7 @@
         <v>406800</v>
       </c>
       <c r="H481">
-        <v>4000</v>
+        <v>35200</v>
       </c>
       <c r="I481">
         <v>0</v>
@@ -45291,7 +45291,7 @@
         <v>99330</v>
       </c>
       <c r="U481">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V481">
         <v>0</v>
@@ -45344,7 +45344,7 @@
         <v>421800</v>
       </c>
       <c r="H482">
-        <v>4000</v>
+        <v>36000</v>
       </c>
       <c r="I482">
         <v>0</v>
@@ -45380,7 +45380,7 @@
         <v>71190.000000000015</v>
       </c>
       <c r="U482">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V482">
         <v>0</v>
@@ -45433,7 +45433,7 @@
         <v>414600</v>
       </c>
       <c r="H483">
-        <v>4000</v>
+        <v>31200</v>
       </c>
       <c r="I483">
         <v>0</v>
@@ -45469,7 +45469,7 @@
         <v>115590</v>
       </c>
       <c r="U483">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V483">
         <v>0</v>
@@ -45522,7 +45522,7 @@
         <v>415200</v>
       </c>
       <c r="H484">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="I484">
         <v>0</v>
@@ -45558,7 +45558,7 @@
         <v>116820</v>
       </c>
       <c r="U484">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V484">
         <v>0</v>
@@ -45611,7 +45611,7 @@
         <v>412200</v>
       </c>
       <c r="H485">
-        <v>4000</v>
+        <v>9600</v>
       </c>
       <c r="I485">
         <v>0</v>
@@ -45647,7 +45647,7 @@
         <v>101760.00000000001</v>
       </c>
       <c r="U485">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V485">
         <v>0</v>
@@ -45700,7 +45700,7 @@
         <v>433200</v>
       </c>
       <c r="H486">
-        <v>4000</v>
+        <v>36000</v>
       </c>
       <c r="I486">
         <v>0</v>
@@ -45736,7 +45736,7 @@
         <v>80160</v>
       </c>
       <c r="U486">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V486">
         <v>0</v>
@@ -45789,7 +45789,7 @@
         <v>417600</v>
       </c>
       <c r="H487">
-        <v>4000</v>
+        <v>58400</v>
       </c>
       <c r="I487">
         <v>0</v>
@@ -45825,7 +45825,7 @@
         <v>85560</v>
       </c>
       <c r="U487">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V487">
         <v>0</v>
@@ -45878,7 +45878,7 @@
         <v>424200</v>
       </c>
       <c r="H488">
-        <v>4000</v>
+        <v>90400</v>
       </c>
       <c r="I488">
         <v>0</v>
@@ -45914,7 +45914,7 @@
         <v>97920</v>
       </c>
       <c r="U488">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V488">
         <v>0</v>
@@ -45967,7 +45967,7 @@
         <v>431400</v>
       </c>
       <c r="H489">
-        <v>4000</v>
+        <v>116000</v>
       </c>
       <c r="I489">
         <v>0</v>
@@ -46003,7 +46003,7 @@
         <v>86880</v>
       </c>
       <c r="U489">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V489">
         <v>0</v>
@@ -46056,7 +46056,7 @@
         <v>406200</v>
       </c>
       <c r="H490">
-        <v>4000</v>
+        <v>140800</v>
       </c>
       <c r="I490">
         <v>0</v>
@@ -46092,7 +46092,7 @@
         <v>86820</v>
       </c>
       <c r="U490">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V490">
         <v>0</v>
@@ -46145,7 +46145,7 @@
         <v>403200</v>
       </c>
       <c r="H491">
-        <v>4000</v>
+        <v>159200</v>
       </c>
       <c r="I491">
         <v>0</v>
@@ -46181,7 +46181,7 @@
         <v>79710</v>
       </c>
       <c r="U491">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V491">
         <v>0</v>
@@ -46234,7 +46234,7 @@
         <v>394200</v>
       </c>
       <c r="H492">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="I492">
         <v>0</v>
@@ -46270,7 +46270,7 @@
         <v>84930</v>
       </c>
       <c r="U492">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V492">
         <v>0</v>
@@ -46323,7 +46323,7 @@
         <v>417600</v>
       </c>
       <c r="H493">
-        <v>4000</v>
+        <v>167200</v>
       </c>
       <c r="I493">
         <v>0</v>
@@ -46359,7 +46359,7 @@
         <v>84810</v>
       </c>
       <c r="U493">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V493">
         <v>0</v>
@@ -46412,7 +46412,7 @@
         <v>413400</v>
       </c>
       <c r="H494">
-        <v>4000</v>
+        <v>208800</v>
       </c>
       <c r="I494">
         <v>0</v>
@@ -46448,7 +46448,7 @@
         <v>83670</v>
       </c>
       <c r="U494">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V494">
         <v>0</v>
@@ -46501,7 +46501,7 @@
         <v>418800</v>
       </c>
       <c r="H495">
-        <v>4000</v>
+        <v>162400</v>
       </c>
       <c r="I495">
         <v>0</v>
@@ -46537,7 +46537,7 @@
         <v>69600</v>
       </c>
       <c r="U495">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V495">
         <v>0</v>
@@ -46590,7 +46590,7 @@
         <v>404400</v>
       </c>
       <c r="H496">
-        <v>4000</v>
+        <v>231200</v>
       </c>
       <c r="I496">
         <v>0</v>
@@ -46626,7 +46626,7 @@
         <v>60750</v>
       </c>
       <c r="U496">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V496">
         <v>0</v>
@@ -46679,7 +46679,7 @@
         <v>417600</v>
       </c>
       <c r="H497">
-        <v>4000</v>
+        <v>241600</v>
       </c>
       <c r="I497">
         <v>0</v>
@@ -46715,7 +46715,7 @@
         <v>27000</v>
       </c>
       <c r="U497">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V497">
         <v>0</v>
@@ -46768,7 +46768,7 @@
         <v>409800</v>
       </c>
       <c r="H498">
-        <v>4000</v>
+        <v>236800</v>
       </c>
       <c r="I498">
         <v>0</v>
@@ -46804,7 +46804,7 @@
         <v>14250</v>
       </c>
       <c r="U498">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V498">
         <v>0</v>
@@ -46857,7 +46857,7 @@
         <v>375600</v>
       </c>
       <c r="H499">
-        <v>4800</v>
+        <v>255200</v>
       </c>
       <c r="I499">
         <v>0</v>
@@ -46893,7 +46893,7 @@
         <v>12990</v>
       </c>
       <c r="U499">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V499">
         <v>0</v>
@@ -46946,7 +46946,7 @@
         <v>366000</v>
       </c>
       <c r="H500">
-        <v>4800</v>
+        <v>232000</v>
       </c>
       <c r="I500">
         <v>0</v>
@@ -46982,7 +46982,7 @@
         <v>13320</v>
       </c>
       <c r="U500">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V500">
         <v>0</v>
@@ -47035,7 +47035,7 @@
         <v>321600</v>
       </c>
       <c r="H501">
-        <v>5600</v>
+        <v>291200</v>
       </c>
       <c r="I501">
         <v>0</v>
@@ -47071,7 +47071,7 @@
         <v>12660</v>
       </c>
       <c r="U501">
-        <v>2040.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="V501">
         <v>0</v>
@@ -47124,7 +47124,7 @@
         <v>285600</v>
       </c>
       <c r="H502">
-        <v>5600</v>
+        <v>242400</v>
       </c>
       <c r="I502">
         <v>0</v>
@@ -47213,7 +47213,7 @@
         <v>301200</v>
       </c>
       <c r="H503">
-        <v>5600</v>
+        <v>129600</v>
       </c>
       <c r="I503">
         <v>0</v>
@@ -47302,7 +47302,7 @@
         <v>354000</v>
       </c>
       <c r="H504">
-        <v>4800</v>
+        <v>132000</v>
       </c>
       <c r="I504">
         <v>0</v>
@@ -47391,7 +47391,7 @@
         <v>351000</v>
       </c>
       <c r="H505">
-        <v>5600</v>
+        <v>152000</v>
       </c>
       <c r="I505">
         <v>0</v>
@@ -47480,7 +47480,7 @@
         <v>397200</v>
       </c>
       <c r="H506">
-        <v>4800</v>
+        <v>208000</v>
       </c>
       <c r="I506">
         <v>0</v>
@@ -47569,7 +47569,7 @@
         <v>400200</v>
       </c>
       <c r="H507">
-        <v>4000</v>
+        <v>161600</v>
       </c>
       <c r="I507">
         <v>0</v>
@@ -47658,7 +47658,7 @@
         <v>391800</v>
       </c>
       <c r="H508">
-        <v>4800</v>
+        <v>185600</v>
       </c>
       <c r="I508">
         <v>0</v>
@@ -47747,7 +47747,7 @@
         <v>395400</v>
       </c>
       <c r="H509">
-        <v>4800</v>
+        <v>205600</v>
       </c>
       <c r="I509">
         <v>0</v>
@@ -47836,7 +47836,7 @@
         <v>411600</v>
       </c>
       <c r="H510">
-        <v>4800</v>
+        <v>216000</v>
       </c>
       <c r="I510">
         <v>0</v>
@@ -47925,7 +47925,7 @@
         <v>407400</v>
       </c>
       <c r="H511">
-        <v>4800</v>
+        <v>225600</v>
       </c>
       <c r="I511">
         <v>0</v>
@@ -48014,7 +48014,7 @@
         <v>409200</v>
       </c>
       <c r="H512">
-        <v>4800</v>
+        <v>233600</v>
       </c>
       <c r="I512">
         <v>0</v>
@@ -48103,7 +48103,7 @@
         <v>410400</v>
       </c>
       <c r="H513">
-        <v>3200</v>
+        <v>239200</v>
       </c>
       <c r="I513">
         <v>0</v>
@@ -48192,7 +48192,7 @@
         <v>411000</v>
       </c>
       <c r="H514">
-        <v>1600</v>
+        <v>244000</v>
       </c>
       <c r="I514">
         <v>0</v>
@@ -48281,7 +48281,7 @@
         <v>408000</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>247200</v>
       </c>
       <c r="I515">
         <v>0</v>
@@ -48370,7 +48370,7 @@
         <v>411000</v>
       </c>
       <c r="H516">
-        <v>800</v>
+        <v>250400</v>
       </c>
       <c r="I516">
         <v>0</v>
@@ -48459,7 +48459,7 @@
         <v>419400</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>251200</v>
       </c>
       <c r="I517">
         <v>0</v>
@@ -48548,7 +48548,7 @@
         <v>425400</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>249600</v>
       </c>
       <c r="I518">
         <v>0</v>
@@ -48637,7 +48637,7 @@
         <v>398400</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>248800</v>
       </c>
       <c r="I519">
         <v>0</v>
@@ -48726,7 +48726,7 @@
         <v>394200</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>246400</v>
       </c>
       <c r="I520">
         <v>800</v>
@@ -48815,7 +48815,7 @@
         <v>400200</v>
       </c>
       <c r="H521">
-        <v>800</v>
+        <v>244800</v>
       </c>
       <c r="I521">
         <v>0</v>
@@ -48904,7 +48904,7 @@
         <v>385200</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>247200</v>
       </c>
       <c r="I522">
         <v>0</v>
@@ -48993,7 +48993,7 @@
         <v>381000</v>
       </c>
       <c r="H523">
-        <v>800</v>
+        <v>235200</v>
       </c>
       <c r="I523">
         <v>800</v>
@@ -49082,7 +49082,7 @@
         <v>387600</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>232000</v>
       </c>
       <c r="I524">
         <v>0</v>
@@ -49171,7 +49171,7 @@
         <v>410400</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>234400</v>
       </c>
       <c r="I525">
         <v>0</v>
@@ -49260,7 +49260,7 @@
         <v>422400</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>257600</v>
       </c>
       <c r="I526">
         <v>800</v>
@@ -49349,7 +49349,7 @@
         <v>433200</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>206400</v>
       </c>
       <c r="I527">
         <v>800</v>
@@ -49438,7 +49438,7 @@
         <v>401400</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>208000</v>
       </c>
       <c r="I528">
         <v>800</v>
@@ -49527,7 +49527,7 @@
         <v>411600</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>209600</v>
       </c>
       <c r="I529">
         <v>3200</v>
@@ -49563,7 +49563,7 @@
         <v>40740.000000000015</v>
       </c>
       <c r="U529">
-        <v>0</v>
+        <v>560.00000000000011</v>
       </c>
       <c r="V529">
         <v>0</v>
@@ -49616,7 +49616,7 @@
         <v>430800</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>212800</v>
       </c>
       <c r="I530">
         <v>0</v>
@@ -49652,7 +49652,7 @@
         <v>47100.000000000007</v>
       </c>
       <c r="U530">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="V530">
         <v>0</v>
@@ -49705,7 +49705,7 @@
         <v>412800</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>212000</v>
       </c>
       <c r="I531">
         <v>3200</v>
@@ -49741,7 +49741,7 @@
         <v>30090.000000000007</v>
       </c>
       <c r="U531">
-        <v>0</v>
+        <v>3640.0000000000009</v>
       </c>
       <c r="V531">
         <v>0</v>
@@ -49794,7 +49794,7 @@
         <v>396600</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>210400</v>
       </c>
       <c r="I532">
         <v>800</v>
@@ -49830,7 +49830,7 @@
         <v>23850.000000000004</v>
       </c>
       <c r="U532">
-        <v>0</v>
+        <v>2760.0000000000005</v>
       </c>
       <c r="V532">
         <v>0</v>
@@ -49883,7 +49883,7 @@
         <v>408000</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>208000</v>
       </c>
       <c r="I533">
         <v>0</v>
@@ -49919,7 +49919,7 @@
         <v>58380.000000000015</v>
       </c>
       <c r="U533">
-        <v>0</v>
+        <v>840.00000000000023</v>
       </c>
       <c r="V533">
         <v>0</v>
@@ -49972,7 +49972,7 @@
         <v>405000</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>204000</v>
       </c>
       <c r="I534">
         <v>3200</v>
@@ -50008,7 +50008,7 @@
         <v>55710</v>
       </c>
       <c r="U534">
-        <v>0</v>
+        <v>840.00000000000023</v>
       </c>
       <c r="V534">
         <v>0</v>
@@ -50061,7 +50061,7 @@
         <v>400800</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>229600</v>
       </c>
       <c r="I535">
         <v>800</v>
@@ -50150,7 +50150,7 @@
         <v>378600</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>212000</v>
       </c>
       <c r="I536">
         <v>0</v>
@@ -50239,7 +50239,7 @@
         <v>371400</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>234400</v>
       </c>
       <c r="I537">
         <v>0</v>
@@ -50328,7 +50328,7 @@
         <v>371400</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>234400</v>
       </c>
       <c r="I538">
         <v>0</v>
@@ -50417,7 +50417,7 @@
         <v>393000</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>264000</v>
       </c>
       <c r="I539">
         <v>0</v>
@@ -50506,7 +50506,7 @@
         <v>407400</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>273600</v>
       </c>
       <c r="I540">
         <v>800</v>
@@ -50595,7 +50595,7 @@
         <v>400800</v>
       </c>
       <c r="H541">
-        <v>800</v>
+        <v>275200</v>
       </c>
       <c r="I541">
         <v>800</v>
@@ -50684,7 +50684,7 @@
         <v>406200</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>328000</v>
       </c>
       <c r="I542">
         <v>0</v>
@@ -50773,7 +50773,7 @@
         <v>411000</v>
       </c>
       <c r="H543">
-        <v>800</v>
+        <v>305600</v>
       </c>
       <c r="I543">
         <v>0</v>
@@ -50862,7 +50862,7 @@
         <v>420600</v>
       </c>
       <c r="H544">
-        <v>2400</v>
+        <v>301600</v>
       </c>
       <c r="I544">
         <v>0</v>
@@ -50951,7 +50951,7 @@
         <v>418800</v>
       </c>
       <c r="H545">
-        <v>4000</v>
+        <v>311200</v>
       </c>
       <c r="I545">
         <v>0</v>
@@ -51040,7 +51040,7 @@
         <v>405000</v>
       </c>
       <c r="H546">
-        <v>4000</v>
+        <v>319200</v>
       </c>
       <c r="I546">
         <v>0</v>
@@ -51129,7 +51129,7 @@
         <v>417600</v>
       </c>
       <c r="H547">
-        <v>4000</v>
+        <v>335200</v>
       </c>
       <c r="I547">
         <v>0</v>
@@ -51218,7 +51218,7 @@
         <v>407400</v>
       </c>
       <c r="H548">
-        <v>5600</v>
+        <v>328000</v>
       </c>
       <c r="I548">
         <v>0</v>
@@ -51307,7 +51307,7 @@
         <v>415200</v>
       </c>
       <c r="H549">
-        <v>5600</v>
+        <v>324800</v>
       </c>
       <c r="I549">
         <v>0</v>
@@ -51396,7 +51396,7 @@
         <v>414600</v>
       </c>
       <c r="H550">
-        <v>5600</v>
+        <v>328000</v>
       </c>
       <c r="I550">
         <v>0</v>
@@ -51485,7 +51485,7 @@
         <v>430800</v>
       </c>
       <c r="H551">
-        <v>4800</v>
+        <v>327200</v>
       </c>
       <c r="I551">
         <v>0</v>
@@ -51574,7 +51574,7 @@
         <v>434400</v>
       </c>
       <c r="H552">
-        <v>4800</v>
+        <v>328800</v>
       </c>
       <c r="I552">
         <v>0</v>
@@ -51663,7 +51663,7 @@
         <v>432000</v>
       </c>
       <c r="H553">
-        <v>4800</v>
+        <v>368000</v>
       </c>
       <c r="I553">
         <v>0</v>
@@ -51752,7 +51752,7 @@
         <v>445800</v>
       </c>
       <c r="H554">
-        <v>5600</v>
+        <v>344800</v>
       </c>
       <c r="I554">
         <v>0</v>
@@ -51841,7 +51841,7 @@
         <v>444000</v>
       </c>
       <c r="H555">
-        <v>4800</v>
+        <v>320800</v>
       </c>
       <c r="I555">
         <v>0</v>
@@ -51930,7 +51930,7 @@
         <v>446400</v>
       </c>
       <c r="H556">
-        <v>6400</v>
+        <v>389600</v>
       </c>
       <c r="I556">
         <v>0</v>
@@ -52019,7 +52019,7 @@
         <v>424800</v>
       </c>
       <c r="H557">
-        <v>5600</v>
+        <v>328800</v>
       </c>
       <c r="I557">
         <v>0</v>
@@ -52108,7 +52108,7 @@
         <v>420600</v>
       </c>
       <c r="H558">
-        <v>4800</v>
+        <v>352000</v>
       </c>
       <c r="I558">
         <v>0</v>
@@ -52197,7 +52197,7 @@
         <v>417000</v>
       </c>
       <c r="H559">
-        <v>5600</v>
+        <v>336000</v>
       </c>
       <c r="I559">
         <v>0</v>
@@ -52233,7 +52233,7 @@
         <v>54990</v>
       </c>
       <c r="U559">
-        <v>440.00000000000023</v>
+        <v>0</v>
       </c>
       <c r="V559">
         <v>0</v>
@@ -52286,7 +52286,7 @@
         <v>429600</v>
       </c>
       <c r="H560">
-        <v>5600</v>
+        <v>308800</v>
       </c>
       <c r="I560">
         <v>0</v>
@@ -52322,7 +52322,7 @@
         <v>57930.000000000022</v>
       </c>
       <c r="U560">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V560">
         <v>0</v>
@@ -52375,7 +52375,7 @@
         <v>430800</v>
       </c>
       <c r="H561">
-        <v>5600</v>
+        <v>311200</v>
       </c>
       <c r="I561">
         <v>0</v>
@@ -52411,7 +52411,7 @@
         <v>54720.000000000007</v>
       </c>
       <c r="U561">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V561">
         <v>0</v>
@@ -52464,7 +52464,7 @@
         <v>422400</v>
       </c>
       <c r="H562">
-        <v>4800</v>
+        <v>313600</v>
       </c>
       <c r="I562">
         <v>0</v>
@@ -52500,7 +52500,7 @@
         <v>62760</v>
       </c>
       <c r="U562">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V562">
         <v>0</v>
@@ -52553,7 +52553,7 @@
         <v>402000</v>
       </c>
       <c r="H563">
-        <v>4000</v>
+        <v>293600</v>
       </c>
       <c r="I563">
         <v>0</v>
@@ -52589,7 +52589,7 @@
         <v>41340.000000000015</v>
       </c>
       <c r="U563">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V563">
         <v>0</v>
@@ -52642,7 +52642,7 @@
         <v>376200</v>
       </c>
       <c r="H564">
-        <v>4000</v>
+        <v>272000</v>
       </c>
       <c r="I564">
         <v>0</v>
@@ -52678,7 +52678,7 @@
         <v>21600.000000000004</v>
       </c>
       <c r="U564">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V564">
         <v>0</v>
@@ -52731,7 +52731,7 @@
         <v>367800</v>
       </c>
       <c r="H565">
-        <v>4000</v>
+        <v>245600</v>
       </c>
       <c r="I565">
         <v>0</v>
@@ -52767,7 +52767,7 @@
         <v>15180</v>
       </c>
       <c r="U565">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V565">
         <v>0</v>
@@ -52820,7 +52820,7 @@
         <v>328800</v>
       </c>
       <c r="H566">
-        <v>4000</v>
+        <v>224000</v>
       </c>
       <c r="I566">
         <v>0</v>
@@ -52856,7 +52856,7 @@
         <v>17520</v>
       </c>
       <c r="U566">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V566">
         <v>0</v>
@@ -52909,7 +52909,7 @@
         <v>348000</v>
       </c>
       <c r="H567">
-        <v>4000</v>
+        <v>200000</v>
       </c>
       <c r="I567">
         <v>0</v>
@@ -52945,7 +52945,7 @@
         <v>22860.000000000004</v>
       </c>
       <c r="U567">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V567">
         <v>0</v>
@@ -52998,7 +52998,7 @@
         <v>384600</v>
       </c>
       <c r="H568">
-        <v>4000</v>
+        <v>204000</v>
       </c>
       <c r="I568">
         <v>0</v>
@@ -53034,7 +53034,7 @@
         <v>22470.000000000004</v>
       </c>
       <c r="U568">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V568">
         <v>0</v>
@@ -53087,7 +53087,7 @@
         <v>412200</v>
       </c>
       <c r="H569">
-        <v>4000</v>
+        <v>217600</v>
       </c>
       <c r="I569">
         <v>0</v>
@@ -53123,7 +53123,7 @@
         <v>22140.000000000004</v>
       </c>
       <c r="U569">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V569">
         <v>0</v>
@@ -53176,7 +53176,7 @@
         <v>428400</v>
       </c>
       <c r="H570">
-        <v>4000</v>
+        <v>168000</v>
       </c>
       <c r="I570">
         <v>0</v>
@@ -53212,7 +53212,7 @@
         <v>21810.000000000004</v>
       </c>
       <c r="U570">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V570">
         <v>0</v>
@@ -53265,7 +53265,7 @@
         <v>411600</v>
       </c>
       <c r="H571">
-        <v>4000</v>
+        <v>134400</v>
       </c>
       <c r="I571">
         <v>0</v>
@@ -53301,7 +53301,7 @@
         <v>49890.000000000015</v>
       </c>
       <c r="U571">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V571">
         <v>0</v>
@@ -53354,7 +53354,7 @@
         <v>418800</v>
       </c>
       <c r="H572">
-        <v>4000</v>
+        <v>143200</v>
       </c>
       <c r="I572">
         <v>0</v>
@@ -53390,7 +53390,7 @@
         <v>31950.000000000004</v>
       </c>
       <c r="U572">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V572">
         <v>0</v>
@@ -53443,7 +53443,7 @@
         <v>416400</v>
       </c>
       <c r="H573">
-        <v>4000</v>
+        <v>116000</v>
       </c>
       <c r="I573">
         <v>0</v>
@@ -53479,7 +53479,7 @@
         <v>21210.000000000004</v>
       </c>
       <c r="U573">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V573">
         <v>0</v>
@@ -53532,7 +53532,7 @@
         <v>403200</v>
       </c>
       <c r="H574">
-        <v>4000</v>
+        <v>95200</v>
       </c>
       <c r="I574">
         <v>0</v>
@@ -53568,7 +53568,7 @@
         <v>34710</v>
       </c>
       <c r="U574">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V574">
         <v>0</v>
@@ -53621,7 +53621,7 @@
         <v>407400</v>
       </c>
       <c r="H575">
-        <v>4000</v>
+        <v>73600</v>
       </c>
       <c r="I575">
         <v>0</v>
@@ -53657,7 +53657,7 @@
         <v>20880.000000000004</v>
       </c>
       <c r="U575">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V575">
         <v>0</v>
@@ -53710,7 +53710,7 @@
         <v>397800</v>
       </c>
       <c r="H576">
-        <v>4000</v>
+        <v>55200</v>
       </c>
       <c r="I576">
         <v>0</v>
@@ -53746,7 +53746,7 @@
         <v>20880.000000000004</v>
       </c>
       <c r="U576">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V576">
         <v>0</v>
@@ -53799,7 +53799,7 @@
         <v>418200</v>
       </c>
       <c r="H577">
-        <v>4000</v>
+        <v>39200</v>
       </c>
       <c r="I577">
         <v>0</v>
@@ -53835,7 +53835,7 @@
         <v>22290</v>
       </c>
       <c r="U577">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V577">
         <v>0</v>
@@ -53888,7 +53888,7 @@
         <v>414000</v>
       </c>
       <c r="H578">
-        <v>4000</v>
+        <v>25600</v>
       </c>
       <c r="I578">
         <v>0</v>
@@ -53924,7 +53924,7 @@
         <v>66390.000000000029</v>
       </c>
       <c r="U578">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V578">
         <v>0</v>
@@ -53977,7 +53977,7 @@
         <v>416400</v>
       </c>
       <c r="H579">
-        <v>4000</v>
+        <v>16800</v>
       </c>
       <c r="I579">
         <v>0</v>
@@ -54013,7 +54013,7 @@
         <v>60360.000000000015</v>
       </c>
       <c r="U579">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V579">
         <v>0</v>
@@ -54066,7 +54066,7 @@
         <v>413400</v>
       </c>
       <c r="H580">
-        <v>4000</v>
+        <v>8800</v>
       </c>
       <c r="I580">
         <v>0</v>
@@ -54102,7 +54102,7 @@
         <v>57000.000000000015</v>
       </c>
       <c r="U580">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V580">
         <v>0</v>
@@ -54155,7 +54155,7 @@
         <v>397200</v>
       </c>
       <c r="H581">
-        <v>4000</v>
+        <v>7200</v>
       </c>
       <c r="I581">
         <v>0</v>
@@ -54191,7 +54191,7 @@
         <v>44310.000000000015</v>
       </c>
       <c r="U581">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V581">
         <v>0</v>
@@ -54244,7 +54244,7 @@
         <v>378600</v>
       </c>
       <c r="H582">
-        <v>4000</v>
+        <v>19200</v>
       </c>
       <c r="I582">
         <v>0</v>
@@ -54280,7 +54280,7 @@
         <v>51030.000000000015</v>
       </c>
       <c r="U582">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V582">
         <v>0</v>
@@ -54333,7 +54333,7 @@
         <v>344400</v>
       </c>
       <c r="H583">
-        <v>4000</v>
+        <v>36000</v>
       </c>
       <c r="I583">
         <v>0</v>
@@ -54369,7 +54369,7 @@
         <v>52020.000000000015</v>
       </c>
       <c r="U583">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V583">
         <v>0</v>
@@ -54422,7 +54422,7 @@
         <v>343800</v>
       </c>
       <c r="H584">
-        <v>4000</v>
+        <v>72800</v>
       </c>
       <c r="I584">
         <v>0</v>
@@ -54458,7 +54458,7 @@
         <v>46200.000000000015</v>
       </c>
       <c r="U584">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V584">
         <v>0</v>
@@ -54511,7 +54511,7 @@
         <v>339600</v>
       </c>
       <c r="H585">
-        <v>4000</v>
+        <v>72000</v>
       </c>
       <c r="I585">
         <v>0</v>
@@ -54547,7 +54547,7 @@
         <v>16860</v>
       </c>
       <c r="U585">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V585">
         <v>0</v>
@@ -54600,7 +54600,7 @@
         <v>372000</v>
       </c>
       <c r="H586">
-        <v>4000</v>
+        <v>72800</v>
       </c>
       <c r="I586">
         <v>0</v>
@@ -54636,7 +54636,7 @@
         <v>15450</v>
       </c>
       <c r="U586">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V586">
         <v>0</v>
@@ -54689,7 +54689,7 @@
         <v>411600</v>
       </c>
       <c r="H587">
-        <v>4000</v>
+        <v>82400</v>
       </c>
       <c r="I587">
         <v>0</v>
@@ -54725,7 +54725,7 @@
         <v>15120</v>
       </c>
       <c r="U587">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V587">
         <v>0</v>
@@ -54778,7 +54778,7 @@
         <v>381000</v>
       </c>
       <c r="H588">
-        <v>4000</v>
+        <v>110400</v>
       </c>
       <c r="I588">
         <v>0</v>
@@ -54814,7 +54814,7 @@
         <v>15180</v>
       </c>
       <c r="U588">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V588">
         <v>0</v>
@@ -54867,7 +54867,7 @@
         <v>409200</v>
       </c>
       <c r="H589">
-        <v>4000</v>
+        <v>124800</v>
       </c>
       <c r="I589">
         <v>0</v>
@@ -54903,7 +54903,7 @@
         <v>14850</v>
       </c>
       <c r="U589">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V589">
         <v>0</v>
@@ -54956,7 +54956,7 @@
         <v>424200</v>
       </c>
       <c r="H590">
-        <v>4000</v>
+        <v>130400</v>
       </c>
       <c r="I590">
         <v>0</v>
@@ -54992,7 +54992,7 @@
         <v>15840.000000000002</v>
       </c>
       <c r="U590">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V590">
         <v>0</v>
@@ -55045,7 +55045,7 @@
         <v>393600</v>
       </c>
       <c r="H591">
-        <v>4000</v>
+        <v>142400</v>
       </c>
       <c r="I591">
         <v>0</v>
@@ -55081,7 +55081,7 @@
         <v>14580</v>
       </c>
       <c r="U591">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V591">
         <v>0</v>
@@ -55134,7 +55134,7 @@
         <v>403800</v>
       </c>
       <c r="H592">
-        <v>4000</v>
+        <v>228000</v>
       </c>
       <c r="I592">
         <v>0</v>
@@ -55170,7 +55170,7 @@
         <v>14850</v>
       </c>
       <c r="U592">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V592">
         <v>0</v>
@@ -55223,7 +55223,7 @@
         <v>373800</v>
       </c>
       <c r="H593">
-        <v>4000</v>
+        <v>160800</v>
       </c>
       <c r="I593">
         <v>0</v>
@@ -55259,7 +55259,7 @@
         <v>14580</v>
       </c>
       <c r="U593">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V593">
         <v>0</v>
@@ -55312,7 +55312,7 @@
         <v>334800</v>
       </c>
       <c r="H594">
-        <v>4000</v>
+        <v>117600</v>
       </c>
       <c r="I594">
         <v>0</v>
@@ -55348,7 +55348,7 @@
         <v>16110</v>
       </c>
       <c r="U594">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V594">
         <v>0</v>
@@ -55401,7 +55401,7 @@
         <v>319200</v>
       </c>
       <c r="H595">
-        <v>4000</v>
+        <v>171200</v>
       </c>
       <c r="I595">
         <v>0</v>
@@ -55437,7 +55437,7 @@
         <v>15180</v>
       </c>
       <c r="U595">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V595">
         <v>0</v>
@@ -55490,7 +55490,7 @@
         <v>310800</v>
       </c>
       <c r="H596">
-        <v>5600</v>
+        <v>277600</v>
       </c>
       <c r="I596">
         <v>0</v>
@@ -55526,7 +55526,7 @@
         <v>13860</v>
       </c>
       <c r="U596">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V596">
         <v>0</v>
@@ -55579,7 +55579,7 @@
         <v>304800</v>
       </c>
       <c r="H597">
-        <v>5600</v>
+        <v>288800</v>
       </c>
       <c r="I597">
         <v>0</v>
@@ -55615,7 +55615,7 @@
         <v>7800.0000000000036</v>
       </c>
       <c r="U597">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="V597">
         <v>0</v>
@@ -55668,7 +55668,7 @@
         <v>281400</v>
       </c>
       <c r="H598">
-        <v>5600</v>
+        <v>293600</v>
       </c>
       <c r="I598">
         <v>0</v>
@@ -55757,7 +55757,7 @@
         <v>346200</v>
       </c>
       <c r="H599">
-        <v>4800</v>
+        <v>294400</v>
       </c>
       <c r="I599">
         <v>0</v>
@@ -55846,7 +55846,7 @@
         <v>354000</v>
       </c>
       <c r="H600">
-        <v>4800</v>
+        <v>312000</v>
       </c>
       <c r="I600">
         <v>0</v>
@@ -55935,7 +55935,7 @@
         <v>358200</v>
       </c>
       <c r="H601">
-        <v>5600</v>
+        <v>304000</v>
       </c>
       <c r="I601">
         <v>0</v>
@@ -56024,7 +56024,7 @@
         <v>361200</v>
       </c>
       <c r="H602">
-        <v>4800</v>
+        <v>325600</v>
       </c>
       <c r="I602">
         <v>0</v>
@@ -56113,7 +56113,7 @@
         <v>349800</v>
       </c>
       <c r="H603">
-        <v>4000</v>
+        <v>323200</v>
       </c>
       <c r="I603">
         <v>0</v>
@@ -56202,7 +56202,7 @@
         <v>333000</v>
       </c>
       <c r="H604">
-        <v>4800</v>
+        <v>276800</v>
       </c>
       <c r="I604">
         <v>0</v>
@@ -56291,7 +56291,7 @@
         <v>341400</v>
       </c>
       <c r="H605">
-        <v>4800</v>
+        <v>291200</v>
       </c>
       <c r="I605">
         <v>0</v>
@@ -56380,7 +56380,7 @@
         <v>390000</v>
       </c>
       <c r="H606">
-        <v>5600</v>
+        <v>250400</v>
       </c>
       <c r="I606">
         <v>0</v>
@@ -56469,7 +56469,7 @@
         <v>397800</v>
       </c>
       <c r="H607">
-        <v>4800</v>
+        <v>220800</v>
       </c>
       <c r="I607">
         <v>0</v>
@@ -56558,7 +56558,7 @@
         <v>401400</v>
       </c>
       <c r="H608">
-        <v>4800</v>
+        <v>218400</v>
       </c>
       <c r="I608">
         <v>0</v>
@@ -56647,7 +56647,7 @@
         <v>405000</v>
       </c>
       <c r="H609">
-        <v>4800</v>
+        <v>232800</v>
       </c>
       <c r="I609">
         <v>0</v>
@@ -56736,7 +56736,7 @@
         <v>387000</v>
       </c>
       <c r="H610">
-        <v>3200</v>
+        <v>239200</v>
       </c>
       <c r="I610">
         <v>0</v>
@@ -56825,7 +56825,7 @@
         <v>387600</v>
       </c>
       <c r="H611">
-        <v>2400</v>
+        <v>243200</v>
       </c>
       <c r="I611">
         <v>0</v>
@@ -56914,7 +56914,7 @@
         <v>389400</v>
       </c>
       <c r="H612">
-        <v>800</v>
+        <v>252800</v>
       </c>
       <c r="I612">
         <v>0</v>
@@ -57003,7 +57003,7 @@
         <v>390000</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>236000</v>
       </c>
       <c r="I613">
         <v>0</v>
@@ -57092,7 +57092,7 @@
         <v>367800</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>248000</v>
       </c>
       <c r="I614">
         <v>0</v>
@@ -57181,7 +57181,7 @@
         <v>366600</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>285600</v>
       </c>
       <c r="I615">
         <v>0</v>
@@ -57270,7 +57270,7 @@
         <v>393000</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>272000</v>
       </c>
       <c r="I616">
         <v>0</v>
@@ -57359,7 +57359,7 @@
         <v>392400</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>235200</v>
       </c>
       <c r="I617">
         <v>0</v>
@@ -57448,7 +57448,7 @@
         <v>400800</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>234400</v>
       </c>
       <c r="I618">
         <v>0</v>
@@ -57537,7 +57537,7 @@
         <v>402000</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>218400</v>
       </c>
       <c r="I619">
         <v>800</v>
@@ -57626,7 +57626,7 @@
         <v>404400</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>232000</v>
       </c>
       <c r="I620">
         <v>0</v>
@@ -57715,7 +57715,7 @@
         <v>408600</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>204000</v>
       </c>
       <c r="I621">
         <v>0</v>
@@ -57804,7 +57804,7 @@
         <v>396600</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>198400</v>
       </c>
       <c r="I622">
         <v>800</v>
@@ -57893,7 +57893,7 @@
         <v>409200</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>202400</v>
       </c>
       <c r="I623">
         <v>0</v>
@@ -57982,7 +57982,7 @@
         <v>414000</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>207200</v>
       </c>
       <c r="I624">
         <v>0</v>
@@ -58071,7 +58071,7 @@
         <v>397800</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>209600</v>
       </c>
       <c r="I625">
         <v>800</v>
@@ -58107,7 +58107,7 @@
         <v>17700</v>
       </c>
       <c r="U625">
-        <v>0</v>
+        <v>280.00000000000006</v>
       </c>
       <c r="V625">
         <v>0</v>
@@ -58160,7 +58160,7 @@
         <v>414600</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>212000</v>
       </c>
       <c r="I626">
         <v>800</v>
@@ -58196,7 +58196,7 @@
         <v>18630</v>
       </c>
       <c r="U626">
-        <v>0</v>
+        <v>1400.0000000000005</v>
       </c>
       <c r="V626">
         <v>0</v>
@@ -58249,7 +58249,7 @@
         <v>392400</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>212000</v>
       </c>
       <c r="I627">
         <v>1600</v>
@@ -58285,7 +58285,7 @@
         <v>17100</v>
       </c>
       <c r="U627">
-        <v>0</v>
+        <v>1120.0000000000002</v>
       </c>
       <c r="V627">
         <v>0</v>
@@ -58338,7 +58338,7 @@
         <v>384000</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>216800</v>
       </c>
       <c r="I628">
         <v>0</v>
@@ -58374,7 +58374,7 @@
         <v>18300</v>
       </c>
       <c r="U628">
-        <v>0</v>
+        <v>1400.0000000000005</v>
       </c>
       <c r="V628">
         <v>0</v>
@@ -58427,7 +58427,7 @@
         <v>389400</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>207200</v>
       </c>
       <c r="I629">
         <v>800</v>
@@ -58463,7 +58463,7 @@
         <v>18300</v>
       </c>
       <c r="U629">
-        <v>0</v>
+        <v>560.00000000000011</v>
       </c>
       <c r="V629">
         <v>0</v>
@@ -58516,7 +58516,7 @@
         <v>396600</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>203200</v>
       </c>
       <c r="I630">
         <v>800</v>
@@ -58605,7 +58605,7 @@
         <v>393600</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>208000</v>
       </c>
       <c r="I631">
         <v>800</v>
@@ -58694,7 +58694,7 @@
         <v>387600</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>208800</v>
       </c>
       <c r="I632">
         <v>0</v>
@@ -58783,7 +58783,7 @@
         <v>408600</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>226400</v>
       </c>
       <c r="I633">
         <v>0</v>
@@ -58872,7 +58872,7 @@
         <v>406200</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>244800</v>
       </c>
       <c r="I634">
         <v>0</v>
@@ -58961,7 +58961,7 @@
         <v>394200</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>304000</v>
       </c>
       <c r="I635">
         <v>0</v>
@@ -59050,7 +59050,7 @@
         <v>401400</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>300800</v>
       </c>
       <c r="I636">
         <v>0</v>
@@ -59139,7 +59139,7 @@
         <v>390600</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>292800</v>
       </c>
       <c r="I637">
         <v>0</v>
@@ -59228,7 +59228,7 @@
         <v>399600</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>298400</v>
       </c>
       <c r="I638">
         <v>0</v>
@@ -59317,7 +59317,7 @@
         <v>403800</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>310400</v>
       </c>
       <c r="I639">
         <v>0</v>
@@ -59406,7 +59406,7 @@
         <v>405600</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>297600</v>
       </c>
       <c r="I640">
         <v>0</v>
@@ -59495,7 +59495,7 @@
         <v>401400</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>304000</v>
       </c>
       <c r="I641">
         <v>0</v>
@@ -59584,7 +59584,7 @@
         <v>400800</v>
       </c>
       <c r="H642">
-        <v>1600</v>
+        <v>313600</v>
       </c>
       <c r="I642">
         <v>0</v>
@@ -59673,7 +59673,7 @@
         <v>388800</v>
       </c>
       <c r="H643">
-        <v>3200</v>
+        <v>335200</v>
       </c>
       <c r="I643">
         <v>0</v>
@@ -59762,7 +59762,7 @@
         <v>399600</v>
       </c>
       <c r="H644">
-        <v>4800</v>
+        <v>328000</v>
       </c>
       <c r="I644">
         <v>0</v>
@@ -59851,7 +59851,7 @@
         <v>406200</v>
       </c>
       <c r="H645">
-        <v>4800</v>
+        <v>351200</v>
       </c>
       <c r="I645">
         <v>0</v>
@@ -59940,7 +59940,7 @@
         <v>406800</v>
       </c>
       <c r="H646">
-        <v>4800</v>
+        <v>333600</v>
       </c>
       <c r="I646">
         <v>0</v>
@@ -60029,7 +60029,7 @@
         <v>390600</v>
       </c>
       <c r="H647">
-        <v>5600</v>
+        <v>360000</v>
       </c>
       <c r="I647">
         <v>0</v>
@@ -60118,7 +60118,7 @@
         <v>385200</v>
       </c>
       <c r="H648">
-        <v>4800</v>
+        <v>337600</v>
       </c>
       <c r="I648">
         <v>0</v>
@@ -60207,7 +60207,7 @@
         <v>394800</v>
       </c>
       <c r="H649">
-        <v>5600</v>
+        <v>336000</v>
       </c>
       <c r="I649">
         <v>0</v>
@@ -60296,7 +60296,7 @@
         <v>395400</v>
       </c>
       <c r="H650">
-        <v>4800</v>
+        <v>335200</v>
       </c>
       <c r="I650">
         <v>0</v>
@@ -60385,7 +60385,7 @@
         <v>399600</v>
       </c>
       <c r="H651">
-        <v>4800</v>
+        <v>338400</v>
       </c>
       <c r="I651">
         <v>0</v>
@@ -60474,7 +60474,7 @@
         <v>400800</v>
       </c>
       <c r="H652">
-        <v>4800</v>
+        <v>356000</v>
       </c>
       <c r="I652">
         <v>0</v>
@@ -60563,7 +60563,7 @@
         <v>396600</v>
       </c>
       <c r="H653">
-        <v>4800</v>
+        <v>331200</v>
       </c>
       <c r="I653">
         <v>0</v>
@@ -60652,7 +60652,7 @@
         <v>401400</v>
       </c>
       <c r="H654">
-        <v>4800</v>
+        <v>313600</v>
       </c>
       <c r="I654">
         <v>0</v>
@@ -60741,7 +60741,7 @@
         <v>394200</v>
       </c>
       <c r="H655">
-        <v>4800</v>
+        <v>351200</v>
       </c>
       <c r="I655">
         <v>0</v>
@@ -60830,7 +60830,7 @@
         <v>391800</v>
       </c>
       <c r="H656">
-        <v>5600</v>
+        <v>310400</v>
       </c>
       <c r="I656">
         <v>0</v>
@@ -60866,7 +60866,7 @@
         <v>7590.0000000000036</v>
       </c>
       <c r="U656">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V656">
         <v>0</v>
@@ -60919,7 +60919,7 @@
         <v>396600</v>
       </c>
       <c r="H657">
-        <v>5600</v>
+        <v>292800</v>
       </c>
       <c r="I657">
         <v>0</v>
@@ -60955,7 +60955,7 @@
         <v>8190.0000000000036</v>
       </c>
       <c r="U657">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V657">
         <v>0</v>
@@ -61008,7 +61008,7 @@
         <v>395400</v>
       </c>
       <c r="H658">
-        <v>4800</v>
+        <v>294400</v>
       </c>
       <c r="I658">
         <v>0</v>
@@ -61044,7 +61044,7 @@
         <v>2520.0000000000009</v>
       </c>
       <c r="U658">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V658">
         <v>0</v>
@@ -61097,7 +61097,7 @@
         <v>376800</v>
       </c>
       <c r="H659">
-        <v>4000</v>
+        <v>270400</v>
       </c>
       <c r="I659">
         <v>0</v>
@@ -61133,7 +61133,7 @@
         <v>660.00000000000034</v>
       </c>
       <c r="U659">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V659">
         <v>0</v>
@@ -61186,7 +61186,7 @@
         <v>354000</v>
       </c>
       <c r="H660">
-        <v>4000</v>
+        <v>257600</v>
       </c>
       <c r="I660">
         <v>0</v>
@@ -61222,7 +61222,7 @@
         <v>330.00000000000017</v>
       </c>
       <c r="U660">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V660">
         <v>0</v>
@@ -61275,7 +61275,7 @@
         <v>354600</v>
       </c>
       <c r="H661">
-        <v>4000</v>
+        <v>264800</v>
       </c>
       <c r="I661">
         <v>0</v>
@@ -61311,7 +61311,7 @@
         <v>0</v>
       </c>
       <c r="U661">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V661">
         <v>0</v>
@@ -61364,7 +61364,7 @@
         <v>319800</v>
       </c>
       <c r="H662">
-        <v>4000</v>
+        <v>236800</v>
       </c>
       <c r="I662">
         <v>0</v>
@@ -61400,7 +61400,7 @@
         <v>0</v>
       </c>
       <c r="U662">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V662">
         <v>0</v>
@@ -61453,7 +61453,7 @@
         <v>325800</v>
       </c>
       <c r="H663">
-        <v>4000</v>
+        <v>236000</v>
       </c>
       <c r="I663">
         <v>0</v>
@@ -61489,7 +61489,7 @@
         <v>0</v>
       </c>
       <c r="U663">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="V663">
         <v>0</v>
@@ -61542,7 +61542,7 @@
         <v>420600</v>
       </c>
       <c r="H664">
-        <v>4000</v>
+        <v>203200</v>
       </c>
       <c r="I664">
         <v>0</v>
@@ -61578,7 +61578,7 @@
         <v>0</v>
       </c>
       <c r="U664">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V664">
         <v>0</v>
@@ -61631,7 +61631,7 @@
         <v>420600</v>
       </c>
       <c r="H665">
-        <v>4000</v>
+        <v>198400</v>
       </c>
       <c r="I665">
         <v>0</v>
@@ -61667,7 +61667,7 @@
         <v>0</v>
       </c>
       <c r="U665">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V665">
         <v>0</v>
@@ -61720,7 +61720,7 @@
         <v>403800</v>
       </c>
       <c r="H666">
-        <v>4000</v>
+        <v>176800</v>
       </c>
       <c r="I666">
         <v>0</v>
@@ -61756,7 +61756,7 @@
         <v>0</v>
       </c>
       <c r="U666">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V666">
         <v>0</v>
@@ -61809,7 +61809,7 @@
         <v>405000</v>
       </c>
       <c r="H667">
-        <v>4000</v>
+        <v>169600</v>
       </c>
       <c r="I667">
         <v>0</v>
@@ -61845,7 +61845,7 @@
         <v>0</v>
       </c>
       <c r="U667">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V667">
         <v>0</v>
@@ -61898,7 +61898,7 @@
         <v>396000</v>
       </c>
       <c r="H668">
-        <v>4000</v>
+        <v>144800</v>
       </c>
       <c r="I668">
         <v>0</v>
@@ -61934,7 +61934,7 @@
         <v>0</v>
       </c>
       <c r="U668">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V668">
         <v>0</v>
@@ -61987,7 +61987,7 @@
         <v>412200</v>
       </c>
       <c r="H669">
-        <v>4000</v>
+        <v>125600</v>
       </c>
       <c r="I669">
         <v>0</v>
@@ -62023,7 +62023,7 @@
         <v>0</v>
       </c>
       <c r="U669">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V669">
         <v>0</v>
@@ -62076,7 +62076,7 @@
         <v>412800</v>
       </c>
       <c r="H670">
-        <v>4000</v>
+        <v>104000</v>
       </c>
       <c r="I670">
         <v>0</v>
@@ -62112,7 +62112,7 @@
         <v>0</v>
       </c>
       <c r="U670">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V670">
         <v>0</v>
@@ -62165,7 +62165,7 @@
         <v>406800</v>
       </c>
       <c r="H671">
-        <v>4000</v>
+        <v>93600</v>
       </c>
       <c r="I671">
         <v>0</v>
@@ -62201,7 +62201,7 @@
         <v>0</v>
       </c>
       <c r="U671">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="V671">
         <v>0</v>
@@ -62254,7 +62254,7 @@
         <v>389400</v>
       </c>
       <c r="H672">
-        <v>4000</v>
+        <v>68000</v>
       </c>
       <c r="I672">
         <v>0</v>
@@ -62290,7 +62290,7 @@
         <v>0</v>
       </c>
       <c r="U672">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V672">
         <v>0</v>
@@ -62343,7 +62343,7 @@
         <v>394800</v>
       </c>
       <c r="H673">
-        <v>4000</v>
+        <v>56000</v>
       </c>
       <c r="I673">
         <v>0</v>
@@ -62379,7 +62379,7 @@
         <v>0</v>
       </c>
       <c r="U673">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V673">
         <v>0</v>
